--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>request1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>response2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>request2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>request_time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>operationId</t>
         </is>
       </c>
     </row>
@@ -466,18 +471,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"38fa3379-233f-4248-ad47-50bbf5a63ce6","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"40bc0b18-00b7-4fb8-80a9-c166326c947b","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596126,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3.2298583984375</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"40bc0b18-00b7-4fb8-80a9-c166326c947b\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596568,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"40bc0b18-00b7-4fb8-80a9-c166326c947b\"}"
+</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.271099328994751</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -485,18 +503,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"64d091e1-e179-4c92-95ac-f8dfd0929e89","operationData":{"accountIdDebit":10995,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596127,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3.323357820510864</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d0896b38-b0b3-49a2-8cf0-859467a1c1d6\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d0896b38-b0b3-49a2-8cf0-859467a1c1d6\"}"
+</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.461602926254272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -504,18 +535,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"45f0b40c-ee55-4095-b9bb-a749d781c5ee","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"13568a89-e868-45f0-9d5d-cd2f357be386","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596128,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.282242298126221</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"13568a89-e868-45f0-9d5d-cd2f357be386\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596569,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"13568a89-e868-45f0-9d5d-cd2f357be386\"}"
+</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.254572153091431</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -523,18 +567,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1d411ca9-9724-439c-b9b2-5909d3d0c284","operationData":{"accountIdDebit":10995,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596129,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.083312034606934</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ff480645-90d4-47cf-8fcb-34a3ecaa1829\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ff480645-90d4-47cf-8fcb-34a3ecaa1829\"}"
+</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.790568351745605</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -547,13 +604,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.410186052322388</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"08655c19-bbc6-4065-8440-776636af7be4\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"08655c19-bbc6-4065-8440-776636af7be4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.0466468334198</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -566,13 +636,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.626738309860229</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9364839b-921a-4d84-aca3-3034369da1a6\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9364839b-921a-4d84-aca3-3034369da1a6\"}"
+</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.956687450408936</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -585,13 +668,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.507653713226318</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"68ebae7f-9744-4cf7-b982-e1f8d68b6310\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"68ebae7f-9744-4cf7-b982-e1f8d68b6310\"}"
+</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.3680419921875</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -604,13 +700,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.510318279266357</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"a5bc3856-9f34-4789-a134-9984f1d16dd4\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"a5bc3856-9f34-4789-a134-9984f1d16dd4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.997437477111816</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -623,13 +732,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.945603132247925</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c7b8345a-792f-4969-add9-a2c46b34b0b6\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c7b8345a-792f-4969-add9-a2c46b34b0b6\"}"
+</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.102350234985352</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -637,18 +759,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"deb629e8-d217-43ed-89d4-bced692c5cf7","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596130,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.004833936691284</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596570,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1\"}"
+</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.532619476318359</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -661,13 +796,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.889533042907715</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"0b4d2112-09ee-4554-a334-0ce9d518e6bf\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"0b4d2112-09ee-4554-a334-0ce9d518e6bf\"}"
+</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.790741205215454</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -680,13 +828,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2.364020347595215</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"71e8e5e5-8835-4f0f-8590-78f56d6d8e73\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"71e8e5e5-8835-4f0f-8590-78f56d6d8e73\"}"
+</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.558251619338989</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -699,13 +860,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1.239316463470459</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"885c32c4-802d-426e-af8b-812aa1454c24\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"885c32c4-802d-426e-af8b-812aa1454c24\"}"
+</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.600743770599365</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -713,18 +887,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3a85b12f-75ff-4a59-b83d-d31e129e3cba","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"5eed7ffb-33b8-4cdd-b267-ea9debdca010","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596131,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1.854336261749268</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"5eed7ffb-33b8-4cdd-b267-ea9debdca010\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596571,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"5eed7ffb-33b8-4cdd-b267-ea9debdca010\"}"
+</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.110307216644287</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -737,13 +924,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2.157001256942749</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"0002b9f4-ba17-4c55-af6d-d43cfa18f350\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"0002b9f4-ba17-4c55-af6d-d43cfa18f350\"}"
+</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.481199979782104</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -751,18 +951,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"200df650-f34b-418d-bf27-988f535b4975","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f907201c-8bc3-490a-98c0-40ea69213d30","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596132,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2.633573532104492</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"f907201c-8bc3-490a-98c0-40ea69213d30\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596572,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"f907201c-8bc3-490a-98c0-40ea69213d30\"}"
+</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.313759565353394</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -770,18 +983,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"434e2fa5-4084-4b5f-beaf-cf81d5d04241","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"1ae0775c-23bc-4315-acc2-b36c25e5ec49","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596133,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1.793293237686157</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"1ae0775c-23bc-4315-acc2-b36c25e5ec49\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596573,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"1ae0775c-23bc-4315-acc2-b36c25e5ec49\"}"
+</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.57452130317688</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -794,13 +1020,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1.852370738983154</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ed4818b8-ea50-433f-90ad-a7a933e2ed58\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ed4818b8-ea50-433f-90ad-a7a933e2ed58\"}"
+</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.384293794631958</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -808,18 +1047,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"be3f7bb0-d2d1-41d0-9178-13946833f3d1","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"2096f3a1-cd21-41d5-bd07-30802132542d","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596134,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2.43053936958313</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"2096f3a1-cd21-41d5-bd07-30802132542d\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596574,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"2096f3a1-cd21-41d5-bd07-30802132542d\"}"
+</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.769572734832764</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -827,18 +1079,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"89b0dda2-fe61-4c78-9b70-936d94731aab","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"823911be-b309-4980-9bbe-10843443dc27","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596135,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1.58910346031189</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"823911be-b309-4980-9bbe-10843443dc27\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596575,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"823911be-b309-4980-9bbe-10843443dc27\"}"
+</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.555625677108765</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -851,13 +1116,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1.92057204246521</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"f5c3cdf1-b153-45e6-bed0-004438813630\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"f5c3cdf1-b153-45e6-bed0-004438813630\"}"
+</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.690811395645142</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -865,18 +1143,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ce1ff6f3-fdb7-4676-b3c8-f5621bfc4803","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3bac6176-d5be-4a2e-836c-4eced64a2b1f","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596136,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1.531617641448975</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"3bac6176-d5be-4a2e-836c-4eced64a2b1f\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596576,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"3bac6176-d5be-4a2e-836c-4eced64a2b1f\"}"
+</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.845466613769531</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -884,18 +1175,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9451014f-b0c8-4f05-9c64-fb259fbf75f4","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.88","amountCreditTotal":"1.18","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"1.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"93ca59b1-3670-4dbe-8813-783d68ca6973","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.88","amountCreditTotal":"1.18","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"1.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596137,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2.487635374069214</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"93ca59b1-3670-4dbe-8813-783d68ca6973\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596577,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"93ca59b1-3670-4dbe-8813-783d68ca6973\"}"
+</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.869272947311401</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -903,18 +1207,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a9707e66-2727-4622-9051-12ada6b9d1c5","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3ce6f78d-d257-4d96-96e8-66fba7960583","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596138,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2.069814920425415</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"3ce6f78d-d257-4d96-96e8-66fba7960583\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596578,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"3ce6f78d-d257-4d96-96e8-66fba7960583\"}"
+</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.617543935775757</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -927,13 +1244,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR'}}</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1.75817608833313</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ad98a97b-533c-4d68-9918-207f4bbbec15\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ad98a97b-533c-4d68-9918-207f4bbbec15\"}"
+</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.050076007843018</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -941,18 +1271,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>21.95114350318909</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"b64b1e9b-3ffc-4cca-a866-0667fdadbbed\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"b64b1e9b-3ffc-4cca-a866-0667fdadbbed\"}"
+</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.991445302963257</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -965,13 +1308,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1.897370338439941</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"599b34eb-7966-44bf-bdd3-702f371609c7\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"599b34eb-7966-44bf-bdd3-702f371609c7\"}"
+</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.157004117965698</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -979,18 +1335,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"729c778d-1b0c-42be-987b-dee19178d9b4","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f9854ce0-0c3e-4887-99e8-e7151e3f8ead","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596139,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1.914170503616333</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"f9854ce0-0c3e-4887-99e8-e7151e3f8ead\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596579,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"f9854ce0-0c3e-4887-99e8-e7151e3f8ead\"}"
+</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.374457597732544</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -998,18 +1367,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3fac8fad-9022-4e5b-90ae-d0be9c68150d","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6ccd48b3-d578-4390-ac99-aa067c68a970","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596140,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1.625086545944214</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"6ccd48b3-d578-4390-ac99-aa067c68a970\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596580,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"6ccd48b3-d578-4390-ac99-aa067c68a970\"}"
+</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.863571643829346</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1022,13 +1404,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2.109261274337769</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ff310490-d522-4010-b5fb-aaa365de9261\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ff310490-d522-4010-b5fb-aaa365de9261\"}"
+</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.159492015838623</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1041,13 +1436,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2.207152366638184</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"a6b4d67c-c337-4fe7-b736-b2efe489f88e\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"a6b4d67c-c337-4fe7-b736-b2efe489f88e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.416967153549194</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1055,18 +1463,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"0c0b59b5-1d9a-4cff-9926-2b8b8bf26a02","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"08a63d37-fef9-4e3b-86d6-87499b8aebf0","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596141,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1.73768162727356</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"08a63d37-fef9-4e3b-86d6-87499b8aebf0\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596581,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"08a63d37-fef9-4e3b-86d6-87499b8aebf0\"}"
+</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.994869947433472</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1079,13 +1500,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1.855178594589233</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"10770815-9013-488d-9dde-2deb5d4b44b9\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"10770815-9013-488d-9dde-2deb5d4b44b9\"}"
+</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.958781957626343</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1098,13 +1532,26 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2.340199708938599</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c55c9cf0-de1c-46a5-a4be-cadf0c030e71\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c55c9cf0-de1c-46a5-a4be-cadf0c030e71\"}"
+</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.868073463439941</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1117,13 +1564,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2.50972843170166</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9b2aa3e7-05dd-4ad2-8ae4-a7645688c497\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9b2aa3e7-05dd-4ad2-8ae4-a7645688c497\"}"
+</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>13.39079928398132</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1136,13 +1596,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1.425147294998169</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"8b9026a8-9bcf-49e5-a921-39ff731e53c8\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"8b9026a8-9bcf-49e5-a921-39ff731e53c8\"}"
+</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.641273736953735</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1155,13 +1628,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1.746583461761475</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"57d52062-2210-48c5-966c-bad35f2ca70c\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"57d52062-2210-48c5-966c-bad35f2ca70c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.665922880172729</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1174,13 +1660,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1.722012996673584</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"0c453c1a-d9ad-401f-81dd-a58aadd3c7fb\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"0c453c1a-d9ad-401f-81dd-a58aadd3c7fb\"}"
+</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.707365274429321</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1193,13 +1692,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1.683878898620605</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9163a00e-1d3b-49f7-9a72-6ed6cfb82e8d\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9163a00e-1d3b-49f7-9a72-6ed6cfb82e8d\"}"
+</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.098343133926392</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1212,13 +1724,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1.754507064819336</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7c64699c-2c97-47bc-8557-4aef15d3ace0\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7c64699c-2c97-47bc-8557-4aef15d3ace0\"}"
+</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.701335191726685</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1226,18 +1751,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"4dd25fce-2b25-4d71-bfee-14d7c3745d2d","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596142,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>2.12157130241394</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596582,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333\"}"
+</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.002906322479248</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1250,13 +1788,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2.037883043289185</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7ef69471-0944-49ad-ad2f-6b182dae1e55\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7ef69471-0944-49ad-ad2f-6b182dae1e55\"}"
+</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.63554859161377</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1269,13 +1820,26 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1.513259649276733</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"eb091052-a186-4b3a-8e07-bae5d6b42962\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"eb091052-a186-4b3a-8e07-bae5d6b42962\"}"
+</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.023834466934204</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1283,18 +1847,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1c91da2d-e1bd-4432-b72e-6cce13a39631","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c2475ee2-3e23-45e0-89cb-f67da68b2f0b","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596143,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2.813809394836426</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c2475ee2-3e23-45e0-89cb-f67da68b2f0b\", \"accountIdDebit\": 8070, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596583,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c2475ee2-3e23-45e0-89cb-f67da68b2f0b\"}"
+</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.410849094390869</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1302,18 +1879,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3502266f-2712-4b6e-adfc-a197ce383579","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"2ec71bea-6d28-4d01-a223-e8511a2a6b42","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596144,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2.391963243484497</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"2ec71bea-6d28-4d01-a223-e8511a2a6b42\", \"accountIdDebit\": 3103, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596584,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"2ec71bea-6d28-4d01-a223-e8511a2a6b42\"}"
+</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.267329692840576</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1321,18 +1911,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"bf15b91c-ca17-4c43-9c2b-85f30b4be1ea","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e0a2d449-d65f-470a-9aa7-c3515537a460","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596145,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1.636069536209106</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"e0a2d449-d65f-470a-9aa7-c3515537a460\", \"accountIdDebit\": 2820, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596585,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"e0a2d449-d65f-470a-9aa7-c3515537a460\"}"
+</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.813725233078003</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1345,13 +1948,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1.69549036026001</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"524c6636-fa09-4922-b020-9e1e3c33e102\", \"accountIdDebit\": 2897, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"524c6636-fa09-4922-b020-9e1e3c33e102\"}"
+</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.88416576385498</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1359,18 +1975,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"b9a8adeb-fcda-41ea-934c-9ceb1ea22ac1","operationData":{"accountIdDebit":11106,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70","operationData":{"accountIdDebit":11106,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596146,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>14.18470311164856</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70\", \"accountIdDebit\": 11106, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596586,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70\"}"
+</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.745590209960938</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1378,18 +2007,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5c5a5114-4300-46c7-abfe-e317ac96c1f9","operationData":{"accountIdDebit":3299,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"8be2f81c-5388-4093-9302-c0d34bf56939","operationData":{"accountIdDebit":3299,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596147,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2.480894327163696</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"8be2f81c-5388-4093-9302-c0d34bf56939\", \"accountIdDebit\": 3299, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596587,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"8be2f81c-5388-4093-9302-c0d34bf56939\"}"
+</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.105790376663208</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1397,18 +2039,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"283569b9-8d8f-47af-97a4-81185a553f28","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"7b132cbc-8614-4592-92b4-e5c5e3252369","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596148,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2.406811475753784</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7b132cbc-8614-4592-92b4-e5c5e3252369\", \"accountIdDebit\": 3506, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596588,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7b132cbc-8614-4592-92b4-e5c5e3252369\"}"
+</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.427778720855713</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1421,13 +2076,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2.229169845581055</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c0e9cb07-f575-424e-92c8-f48f6cd390aa\", \"accountIdDebit\": 8071, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c0e9cb07-f575-424e-92c8-f48f6cd390aa\"}"
+</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.565052032470703</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1435,18 +2103,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"61edcfa7-a12b-47f2-9c74-abc667c7bf81","operationData":{"accountIdDebit":2896,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c659aef6-9d3d-4f7a-a08e-28a31b50b10c","operationData":{"accountIdDebit":2896,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596149,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>3.121490001678467</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c659aef6-9d3d-4f7a-a08e-28a31b50b10c\", \"accountIdDebit\": 2896, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596589,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c659aef6-9d3d-4f7a-a08e-28a31b50b10c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.15017032623291</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1454,18 +2135,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9c79d587-ea56-423d-a9f0-97c022ade4d7","operationData":{"accountIdDebit":2973,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"04f6d88f-51db-4eed-b43d-807b78900091","operationData":{"accountIdDebit":2973,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596150,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2.637427568435669</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"04f6d88f-51db-4eed-b43d-807b78900091\", \"accountIdDebit\": 2973, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596590,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"04f6d88f-51db-4eed-b43d-807b78900091\"}"
+</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.232388734817505</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1473,18 +2167,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"967c0580-e62a-4794-b094-8fbac6ff9b65","operationData":{"accountIdDebit":3178,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"275a29a7-0615-4203-82df-851bb1363984","operationData":{"accountIdDebit":3178,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596151,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>2.491329669952393</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"275a29a7-0615-4203-82df-851bb1363984\", \"accountIdDebit\": 3178, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596591,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"275a29a7-0615-4203-82df-851bb1363984\"}"
+</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.787170171737671</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1497,13 +2204,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2.328805685043335</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9dc9e410-23c4-4227-b0f5-e85e89713bdb\", \"accountIdDebit\": 3179, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9dc9e410-23c4-4227-b0f5-e85e89713bdb\"}"
+</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.521305084228516</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1511,18 +2231,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f599da8d-8006-4e27-9b0e-7fd64c483984","operationData":{"accountIdDebit":8069,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"23ef75c5-91b5-4221-951b-50399a1f66bc","operationData":{"accountIdDebit":8069,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596152,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>2.383418083190918</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"23ef75c5-91b5-4221-951b-50399a1f66bc\", \"accountIdDebit\": 8069, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596592,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"23ef75c5-91b5-4221-951b-50399a1f66bc\"}"
+</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.97899341583252</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1530,18 +2263,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a3a9597c-c958-46c9-80cd-225f1b3cbd95","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ca1ea06e-564a-42fb-b772-0bd92129a2da","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596153,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>2.159510850906372</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ca1ea06e-564a-42fb-b772-0bd92129a2da\", \"accountIdDebit\": 8072, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596593,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ca1ea06e-564a-42fb-b772-0bd92129a2da\"}"
+</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.920365810394287</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1549,18 +2295,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"29cc2adf-bd95-4955-9378-6aba6c8ded9f","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"7660f583-5d9c-4b42-b5f3-5d43aa69e531","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596154,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>2.348421096801758</v>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7660f583-5d9c-4b42-b5f3-5d43aa69e531\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596594,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7660f583-5d9c-4b42-b5f3-5d43aa69e531\"}"
+</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.779648303985596</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1568,18 +2327,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"bc59cccb-b192-4626-a9da-741b606e4075","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a817483f-c04d-4ce3-93cc-31c03c107530","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596155,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2.530531167984009</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"a817483f-c04d-4ce3-93cc-31c03c107530\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596595,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"a817483f-c04d-4ce3-93cc-31c03c107530\"}"
+</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.857162952423096</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1587,18 +2359,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9ba534cc-2307-4ffb-b549-a68c42a0346e","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"922f49b5-04d3-47af-911f-a3a1e03e40b7","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596156,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2.558465719223022</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"922f49b5-04d3-47af-911f-a3a1e03e40b7\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596596,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"922f49b5-04d3-47af-911f-a3a1e03e40b7\"}"
+</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2.234184503555298</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1611,13 +2396,26 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2.398218393325806</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"b0accb30-dc11-46a2-9d98-47e6451cb220\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"b0accb30-dc11-46a2-9d98-47e6451cb220\"}"
+</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.530380725860596</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1630,13 +2428,26 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2.240660667419434</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"652a9e37-ed05-4a3d-995a-bed969c9fd2e\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"652a9e37-ed05-4a3d-995a-bed969c9fd2e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1.855307102203369</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1649,13 +2460,26 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2.561103343963623</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d7228e59-a570-44ed-955a-76a64c00b955\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d7228e59-a570-44ed-955a-76a64c00b955\"}"
+</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.491730213165283</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1663,18 +2487,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"0765e5e5-1baa-47dd-b177-5024216ce810","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ba65d099-8562-4202-a339-71aba151829c","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596157,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2.286392450332642</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ba65d099-8562-4202-a339-71aba151829c\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596597,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ba65d099-8562-4202-a339-71aba151829c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.446852207183838</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1687,13 +2524,26 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2.191871166229248</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9b85d92e-e0e9-452c-9b35-d3eb6bda95b7\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9b85d92e-e0e9-452c-9b35-d3eb6bda95b7\"}"
+</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.529250144958496</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1701,18 +2551,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"65f307ad-024f-4ef4-987d-f9078fe02749","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"8ebc6649-2f99-41c0-9721-49c8584694cf","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596158,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2.409398794174194</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"8ebc6649-2f99-41c0-9721-49c8584694cf\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596598,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"8ebc6649-2f99-41c0-9721-49c8584694cf\"}"
+</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2.272681713104248</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1720,18 +2583,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"fe82001e-e183-46da-bd26-c82f438e12f6","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"00eb0914-258e-489e-961e-319d29f59ae1","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596159,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2.391433000564575</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"00eb0914-258e-489e-961e-319d29f59ae1\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596599,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"00eb0914-258e-489e-961e-319d29f59ae1\"}"
+</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.716044187545776</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"40bc0b18-00b7-4fb8-80a9-c166326c947b","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"fd1b901b-181f-4658-88f0-043c0a2bd9a1","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"40bc0b18-00b7-4fb8-80a9-c166326c947b\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"fd1b901b-181f-4658-88f0-043c0a2bd9a1\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596568,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596600,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"40bc0b18-00b7-4fb8-80a9-c166326c947b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"fd1b901b-181f-4658-88f0-043c0a2bd9a1\"}"
 </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.271099328994751</v>
+        <v>1.994792938232422</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d0896b38-b0b3-49a2-8cf0-859467a1c1d6\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1f742c71-130b-4593-a910-e133fc4d60ad\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -521,12 +521,12 @@
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d0896b38-b0b3-49a2-8cf0-859467a1c1d6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1f742c71-130b-4593-a910-e133fc4d60ad\"}"
 </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.461602926254272</v>
+        <v>2.355547189712524</v>
       </c>
     </row>
     <row r="4">
@@ -535,30 +535,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"13568a89-e868-45f0-9d5d-cd2f357be386","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"13568a89-e868-45f0-9d5d-cd2f357be386\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596569,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596601,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"13568a89-e868-45f0-9d5d-cd2f357be386\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403\"}"
 </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.254572153091431</v>
+        <v>2.137372016906738</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ff480645-90d4-47cf-8fcb-34a3ecaa1829\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ea028831-11f4-4f56-ab8c-1f83adae2792\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -585,12 +585,12 @@
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ff480645-90d4-47cf-8fcb-34a3ecaa1829\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ea028831-11f4-4f56-ab8c-1f83adae2792\"}"
 </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.790568351745605</v>
+        <v>1.888408899307251</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"08655c19-bbc6-4065-8440-776636af7be4\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"92aaa57d-1397-4c70-a46c-f3a68c3c446d\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -617,12 +617,12 @@
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"08655c19-bbc6-4065-8440-776636af7be4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"92aaa57d-1397-4c70-a46c-f3a68c3c446d\"}"
 </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.0466468334198</v>
+        <v>1.322888374328613</v>
       </c>
     </row>
     <row r="7">
@@ -637,7 +637,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9364839b-921a-4d84-aca3-3034369da1a6\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"8d228594-9a81-49aa-ab78-add49844c29e\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -649,12 +649,12 @@
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9364839b-921a-4d84-aca3-3034369da1a6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8d228594-9a81-49aa-ab78-add49844c29e\"}"
 </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.956687450408936</v>
+        <v>2.347896099090576</v>
       </c>
     </row>
     <row r="8">
@@ -669,7 +669,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"68ebae7f-9744-4cf7-b982-e1f8d68b6310\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"211734c0-e5a0-42c3-b3dd-dddb96cb118e\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -681,12 +681,12 @@
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"68ebae7f-9744-4cf7-b982-e1f8d68b6310\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"211734c0-e5a0-42c3-b3dd-dddb96cb118e\"}"
 </t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3680419921875</v>
+        <v>1.848516941070557</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +701,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a5bc3856-9f34-4789-a134-9984f1d16dd4\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"dc90833e-0011-41b4-a1b5-089024b1dd8d\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -713,12 +713,12 @@
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a5bc3856-9f34-4789-a134-9984f1d16dd4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"dc90833e-0011-41b4-a1b5-089024b1dd8d\"}"
 </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.997437477111816</v>
+        <v>1.629795074462891</v>
       </c>
     </row>
     <row r="10">
@@ -733,7 +733,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c7b8345a-792f-4969-add9-a2c46b34b0b6\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"688a3cbd-a1e7-4fc8-a02f-19da8106efcb\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -745,12 +745,12 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c7b8345a-792f-4969-add9-a2c46b34b0b6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"688a3cbd-a1e7-4fc8-a02f-19da8106efcb\"}"
 </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.102350234985352</v>
+        <v>1.644150018692017</v>
       </c>
     </row>
     <row r="11">
@@ -759,30 +759,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"13383147-c5af-4035-af56-8730c9e4dbf1","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"13383147-c5af-4035-af56-8730c9e4dbf1\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596570,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596602,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1cf9fe75-317a-419b-a0ce-8c0bbc245cb1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"13383147-c5af-4035-af56-8730c9e4dbf1\"}"
 </t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.532619476318359</v>
+        <v>1.437775850296021</v>
       </c>
     </row>
     <row r="12">
@@ -797,7 +797,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0b4d2112-09ee-4554-a334-0ce9d518e6bf\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"913f09ec-6142-49fd-8070-e6449148bf6e\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -809,12 +809,12 @@
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0b4d2112-09ee-4554-a334-0ce9d518e6bf\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"913f09ec-6142-49fd-8070-e6449148bf6e\"}"
 </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.790741205215454</v>
+        <v>1.459752559661865</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"71e8e5e5-8835-4f0f-8590-78f56d6d8e73\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f8424432-f8c1-4296-93ad-ccd27de40e73\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -841,12 +841,12 @@
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"71e8e5e5-8835-4f0f-8590-78f56d6d8e73\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f8424432-f8c1-4296-93ad-ccd27de40e73\"}"
 </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.558251619338989</v>
+        <v>1.335542678833008</v>
       </c>
     </row>
     <row r="14">
@@ -861,7 +861,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"885c32c4-802d-426e-af8b-812aa1454c24\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c10fffd5-31ac-48d0-8ff2-819c82f6ebd2\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -873,12 +873,12 @@
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"885c32c4-802d-426e-af8b-812aa1454c24\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c10fffd5-31ac-48d0-8ff2-819c82f6ebd2\"}"
 </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.600743770599365</v>
+        <v>1.535980224609375</v>
       </c>
     </row>
     <row r="15">
@@ -887,30 +887,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5eed7ffb-33b8-4cdd-b267-ea9debdca010","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"5128fd11-f77d-4710-a380-f3b8571a3a85","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5eed7ffb-33b8-4cdd-b267-ea9debdca010\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"5128fd11-f77d-4710-a380-f3b8571a3a85\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596571,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596603,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5eed7ffb-33b8-4cdd-b267-ea9debdca010\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5128fd11-f77d-4710-a380-f3b8571a3a85\"}"
 </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.110307216644287</v>
+        <v>1.878207445144653</v>
       </c>
     </row>
     <row r="16">
@@ -925,7 +925,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0002b9f4-ba17-4c55-af6d-d43cfa18f350\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"52a52f96-3788-4791-9137-f5bcece298b8\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -937,12 +937,12 @@
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0002b9f4-ba17-4c55-af6d-d43cfa18f350\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"52a52f96-3788-4791-9137-f5bcece298b8\"}"
 </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.481199979782104</v>
+        <v>1.407249689102173</v>
       </c>
     </row>
     <row r="17">
@@ -951,30 +951,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f907201c-8bc3-490a-98c0-40ea69213d30","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f907201c-8bc3-490a-98c0-40ea69213d30\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596572,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596604,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f907201c-8bc3-490a-98c0-40ea69213d30\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0\"}"
 </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.313759565353394</v>
+        <v>1.518348217010498</v>
       </c>
     </row>
     <row r="18">
@@ -983,30 +983,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1ae0775c-23bc-4315-acc2-b36c25e5ec49","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a6cc7965-9e52-4e0c-b884-d24d9221d919","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1ae0775c-23bc-4315-acc2-b36c25e5ec49\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a6cc7965-9e52-4e0c-b884-d24d9221d919\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596573,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596605,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1ae0775c-23bc-4315-acc2-b36c25e5ec49\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a6cc7965-9e52-4e0c-b884-d24d9221d919\"}"
 </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57452130317688</v>
+        <v>1.927642345428467</v>
       </c>
     </row>
     <row r="19">
@@ -1021,7 +1021,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ed4818b8-ea50-433f-90ad-a7a933e2ed58\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3411b21f-0d29-4484-8cd1-7f1641adccd3\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1033,12 +1033,12 @@
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ed4818b8-ea50-433f-90ad-a7a933e2ed58\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3411b21f-0d29-4484-8cd1-7f1641adccd3\"}"
 </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.384293794631958</v>
+        <v>2.160816669464111</v>
       </c>
     </row>
     <row r="20">
@@ -1047,30 +1047,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"2096f3a1-cd21-41d5-bd07-30802132542d","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2096f3a1-cd21-41d5-bd07-30802132542d\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596574,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596606,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2096f3a1-cd21-41d5-bd07-30802132542d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be\"}"
 </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.769572734832764</v>
+        <v>1.478660106658936</v>
       </c>
     </row>
     <row r="21">
@@ -1079,30 +1079,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"823911be-b309-4980-9bbe-10843443dc27","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"697c4277-7ca0-494e-82b3-1ffc15cb61ff","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"823911be-b309-4980-9bbe-10843443dc27\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"697c4277-7ca0-494e-82b3-1ffc15cb61ff\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596575,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596607,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"823911be-b309-4980-9bbe-10843443dc27\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"697c4277-7ca0-494e-82b3-1ffc15cb61ff\"}"
 </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.555625677108765</v>
+        <v>2.522393703460693</v>
       </c>
     </row>
     <row r="22">
@@ -1117,7 +1117,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f5c3cdf1-b153-45e6-bed0-004438813630\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"52532cfa-2e4c-41dc-aed9-186ade98ef37\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1129,12 +1129,12 @@
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f5c3cdf1-b153-45e6-bed0-004438813630\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"52532cfa-2e4c-41dc-aed9-186ade98ef37\"}"
 </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.690811395645142</v>
+        <v>1.754972219467163</v>
       </c>
     </row>
     <row r="23">
@@ -1143,30 +1143,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3bac6176-d5be-4a2e-836c-4eced64a2b1f","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ab8a3154-74c2-4d01-ab43-29342eec6e50","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3bac6176-d5be-4a2e-836c-4eced64a2b1f\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ab8a3154-74c2-4d01-ab43-29342eec6e50\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596576,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596608,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3bac6176-d5be-4a2e-836c-4eced64a2b1f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ab8a3154-74c2-4d01-ab43-29342eec6e50\"}"
 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.845466613769531</v>
+        <v>2.017849445343018</v>
       </c>
     </row>
     <row r="24">
@@ -1175,30 +1175,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"93ca59b1-3670-4dbe-8813-783d68ca6973","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.88","amountCreditTotal":"1.18","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"1.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"7219428e-b606-4f3e-bde6-27ac1ba2c9f1","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.88","amountCreditTotal":"1.18","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"1.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"93ca59b1-3670-4dbe-8813-783d68ca6973\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7219428e-b606-4f3e-bde6-27ac1ba2c9f1\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596577,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596609,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"93ca59b1-3670-4dbe-8813-783d68ca6973\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7219428e-b606-4f3e-bde6-27ac1ba2c9f1\"}"
 </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.869272947311401</v>
+        <v>1.638821363449097</v>
       </c>
     </row>
     <row r="25">
@@ -1207,30 +1207,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3ce6f78d-d257-4d96-96e8-66fba7960583","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c182a270-198c-4a0c-ad52-2e2eb88f8b94","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3ce6f78d-d257-4d96-96e8-66fba7960583\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c182a270-198c-4a0c-ad52-2e2eb88f8b94\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596578,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596610,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3ce6f78d-d257-4d96-96e8-66fba7960583\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c182a270-198c-4a0c-ad52-2e2eb88f8b94\"}"
 </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.617543935775757</v>
+        <v>2.430152654647827</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ad98a97b-533c-4d68-9918-207f4bbbec15\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"0af3c340-0772-4d96-9368-24f17f5e34f6\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1257,12 +1257,12 @@
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ad98a97b-533c-4d68-9918-207f4bbbec15\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0af3c340-0772-4d96-9368-24f17f5e34f6\"}"
 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.050076007843018</v>
+        <v>1.924864768981934</v>
       </c>
     </row>
     <row r="27">
@@ -1277,7 +1277,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b64b1e9b-3ffc-4cca-a866-0667fdadbbed\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"77873fa7-a24a-4c3a-91ca-d5e2b2d6bcca\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1289,12 +1289,12 @@
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b64b1e9b-3ffc-4cca-a866-0667fdadbbed\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"77873fa7-a24a-4c3a-91ca-d5e2b2d6bcca\"}"
 </t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.991445302963257</v>
+        <v>1.604687929153442</v>
       </c>
     </row>
     <row r="28">
@@ -1309,7 +1309,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"599b34eb-7966-44bf-bdd3-702f371609c7\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"5d1eca94-4d27-4c6e-a785-a0c9126ffae6\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1321,12 +1321,12 @@
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"599b34eb-7966-44bf-bdd3-702f371609c7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5d1eca94-4d27-4c6e-a785-a0c9126ffae6\"}"
 </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.157004117965698</v>
+        <v>1.713196516036987</v>
       </c>
     </row>
     <row r="29">
@@ -1335,30 +1335,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f9854ce0-0c3e-4887-99e8-e7151e3f8ead","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d41af71c-55c5-46e5-a305-42064c1e8809","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f9854ce0-0c3e-4887-99e8-e7151e3f8ead\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d41af71c-55c5-46e5-a305-42064c1e8809\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596579,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596611,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f9854ce0-0c3e-4887-99e8-e7151e3f8ead\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d41af71c-55c5-46e5-a305-42064c1e8809\"}"
 </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.374457597732544</v>
+        <v>1.726963758468628</v>
       </c>
     </row>
     <row r="30">
@@ -1367,30 +1367,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"6ccd48b3-d578-4390-ac99-aa067c68a970","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6ccd48b3-d578-4390-ac99-aa067c68a970\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596580,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596612,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6ccd48b3-d578-4390-ac99-aa067c68a970\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d\"}"
 </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.863571643829346</v>
+        <v>1.904931306838989</v>
       </c>
     </row>
     <row r="31">
@@ -1405,7 +1405,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ff310490-d522-4010-b5fb-aaa365de9261\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"52e03465-de9b-415a-acb7-e494b3a8325f\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1417,12 +1417,12 @@
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ff310490-d522-4010-b5fb-aaa365de9261\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"52e03465-de9b-415a-acb7-e494b3a8325f\"}"
 </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.159492015838623</v>
+        <v>1.857079267501831</v>
       </c>
     </row>
     <row r="32">
@@ -1437,7 +1437,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a6b4d67c-c337-4fe7-b736-b2efe489f88e\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"0686957c-b650-4577-a75a-c6ff6d4f9503\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1449,12 +1449,12 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a6b4d67c-c337-4fe7-b736-b2efe489f88e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0686957c-b650-4577-a75a-c6ff6d4f9503\"}"
 </t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.416967153549194</v>
+        <v>1.511440753936768</v>
       </c>
     </row>
     <row r="33">
@@ -1463,30 +1463,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"08a63d37-fef9-4e3b-86d6-87499b8aebf0","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e53e4f10-5126-4732-aea1-11b7c85d7984","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"08a63d37-fef9-4e3b-86d6-87499b8aebf0\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e53e4f10-5126-4732-aea1-11b7c85d7984\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596581,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596613,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"08a63d37-fef9-4e3b-86d6-87499b8aebf0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e53e4f10-5126-4732-aea1-11b7c85d7984\"}"
 </t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.994869947433472</v>
+        <v>1.893501043319702</v>
       </c>
     </row>
     <row r="34">
@@ -1501,7 +1501,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"10770815-9013-488d-9dde-2deb5d4b44b9\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"038e7911-f7f1-4379-bb6f-299d9de4da2c\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1513,12 +1513,12 @@
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"10770815-9013-488d-9dde-2deb5d4b44b9\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"038e7911-f7f1-4379-bb6f-299d9de4da2c\"}"
 </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.958781957626343</v>
+        <v>1.921640634536743</v>
       </c>
     </row>
     <row r="35">
@@ -1533,7 +1533,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c55c9cf0-de1c-46a5-a4be-cadf0c030e71\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4f207751-63fa-4192-b0f5-e2159a1fd3b6\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1545,12 +1545,12 @@
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c55c9cf0-de1c-46a5-a4be-cadf0c030e71\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4f207751-63fa-4192-b0f5-e2159a1fd3b6\"}"
 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.868073463439941</v>
+        <v>1.679812431335449</v>
       </c>
     </row>
     <row r="36">
@@ -1565,7 +1565,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9b2aa3e7-05dd-4ad2-8ae4-a7645688c497\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f14a13d5-d245-4a72-85e1-81b157558f1a\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1577,12 +1577,12 @@
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9b2aa3e7-05dd-4ad2-8ae4-a7645688c497\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f14a13d5-d245-4a72-85e1-81b157558f1a\"}"
 </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>13.39079928398132</v>
+        <v>2.162743330001831</v>
       </c>
     </row>
     <row r="37">
@@ -1597,7 +1597,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8b9026a8-9bcf-49e5-a921-39ff731e53c8\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b7c17376-f36d-4b62-89d7-d1367b9191e4\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1609,12 +1609,12 @@
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8b9026a8-9bcf-49e5-a921-39ff731e53c8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b7c17376-f36d-4b62-89d7-d1367b9191e4\"}"
 </t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.641273736953735</v>
+        <v>1.237159729003906</v>
       </c>
     </row>
     <row r="38">
@@ -1629,7 +1629,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"57d52062-2210-48c5-966c-bad35f2ca70c\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"47373d8b-42f4-45a2-ac2e-ae5f556bd028\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1641,12 +1641,12 @@
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"57d52062-2210-48c5-966c-bad35f2ca70c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"47373d8b-42f4-45a2-ac2e-ae5f556bd028\"}"
 </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.665922880172729</v>
+        <v>2.056997060775757</v>
       </c>
     </row>
     <row r="39">
@@ -1661,7 +1661,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0c453c1a-d9ad-401f-81dd-a58aadd3c7fb\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"80611e94-6df0-49ab-880e-136ad415665f\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1673,12 +1673,12 @@
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0c453c1a-d9ad-401f-81dd-a58aadd3c7fb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"80611e94-6df0-49ab-880e-136ad415665f\"}"
 </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.707365274429321</v>
+        <v>1.443345785140991</v>
       </c>
     </row>
     <row r="40">
@@ -1693,7 +1693,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9163a00e-1d3b-49f7-9a72-6ed6cfb82e8d\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"0d4a32dd-f738-4474-b889-6588987f6810\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1705,12 +1705,12 @@
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9163a00e-1d3b-49f7-9a72-6ed6cfb82e8d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0d4a32dd-f738-4474-b889-6588987f6810\"}"
 </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.098343133926392</v>
+        <v>1.55058479309082</v>
       </c>
     </row>
     <row r="41">
@@ -1725,7 +1725,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7c64699c-2c97-47bc-8557-4aef15d3ace0\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"efd7a605-debe-4749-bcc4-068e1cba43be\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1737,12 +1737,12 @@
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7c64699c-2c97-47bc-8557-4aef15d3ace0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"efd7a605-debe-4749-bcc4-068e1cba43be\"}"
 </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.701335191726685</v>
+        <v>1.210286378860474</v>
       </c>
     </row>
     <row r="42">
@@ -1751,30 +1751,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"92d1d9de-e4e3-4512-a36b-50a49be41555","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"92d1d9de-e4e3-4512-a36b-50a49be41555\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596582,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596614,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e2a3a2c7-87ff-426d-b5b6-d1e3743dd333\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"92d1d9de-e4e3-4512-a36b-50a49be41555\"}"
 </t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.002906322479248</v>
+        <v>1.754513025283813</v>
       </c>
     </row>
     <row r="43">
@@ -1789,7 +1789,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7ef69471-0944-49ad-ad2f-6b182dae1e55\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c7785c96-b206-4fc9-9832-1d1a929a0fb7\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1801,12 +1801,12 @@
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7ef69471-0944-49ad-ad2f-6b182dae1e55\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c7785c96-b206-4fc9-9832-1d1a929a0fb7\"}"
 </t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.63554859161377</v>
+        <v>1.589486837387085</v>
       </c>
     </row>
     <row r="44">
@@ -1821,7 +1821,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"eb091052-a186-4b3a-8e07-bae5d6b42962\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"bfbd5f20-1324-4416-867b-6c5acb92c678\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1833,12 +1833,12 @@
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"eb091052-a186-4b3a-8e07-bae5d6b42962\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"bfbd5f20-1324-4416-867b-6c5acb92c678\"}"
 </t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.023834466934204</v>
+        <v>1.711937665939331</v>
       </c>
     </row>
     <row r="45">
@@ -1847,30 +1847,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c2475ee2-3e23-45e0-89cb-f67da68b2f0b","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e3eceec3-9d15-4b06-8eed-9a03181a69b1","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c2475ee2-3e23-45e0-89cb-f67da68b2f0b\", \"accountIdDebit\": 8070, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e3eceec3-9d15-4b06-8eed-9a03181a69b1\", \"accountIdDebit\": 8070, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596583,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596615,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c2475ee2-3e23-45e0-89cb-f67da68b2f0b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e3eceec3-9d15-4b06-8eed-9a03181a69b1\"}"
 </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.410849094390869</v>
+        <v>1.786257743835449</v>
       </c>
     </row>
     <row r="46">
@@ -1879,30 +1879,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"2ec71bea-6d28-4d01-a223-e8511a2a6b42","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"931a4e57-987b-49f2-bc02-f21b85b9a186","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2ec71bea-6d28-4d01-a223-e8511a2a6b42\", \"accountIdDebit\": 3103, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"931a4e57-987b-49f2-bc02-f21b85b9a186\", \"accountIdDebit\": 3103, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596584,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596616,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2ec71bea-6d28-4d01-a223-e8511a2a6b42\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"931a4e57-987b-49f2-bc02-f21b85b9a186\"}"
 </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.267329692840576</v>
+        <v>1.499990224838257</v>
       </c>
     </row>
     <row r="47">
@@ -1911,30 +1911,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e0a2d449-d65f-470a-9aa7-c3515537a460","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3c3426b5-c6fa-4c06-b767-fca8eca20a97","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e0a2d449-d65f-470a-9aa7-c3515537a460\", \"accountIdDebit\": 2820, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3c3426b5-c6fa-4c06-b767-fca8eca20a97\", \"accountIdDebit\": 2820, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596585,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596617,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e0a2d449-d65f-470a-9aa7-c3515537a460\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3c3426b5-c6fa-4c06-b767-fca8eca20a97\"}"
 </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.813725233078003</v>
+        <v>1.827049493789673</v>
       </c>
     </row>
     <row r="48">
@@ -1949,7 +1949,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"524c6636-fa09-4922-b020-9e1e3c33e102\", \"accountIdDebit\": 2897, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4596bbb1-8682-462e-b792-7c979e60bc78\", \"accountIdDebit\": 2897, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1961,12 +1961,12 @@
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"524c6636-fa09-4922-b020-9e1e3c33e102\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4596bbb1-8682-462e-b792-7c979e60bc78\"}"
 </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.88416576385498</v>
+        <v>2.032106399536133</v>
       </c>
     </row>
     <row r="49">
@@ -1975,30 +1975,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70","operationData":{"accountIdDebit":11106,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4","operationData":{"accountIdDebit":11106,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70\", \"accountIdDebit\": 11106, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4\", \"accountIdDebit\": 11106, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596586,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596618,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"24c6e8cf-56a5-4b12-b9fb-cced9dc32e70\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4\"}"
 </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.745590209960938</v>
+        <v>2.091209411621094</v>
       </c>
     </row>
     <row r="50">
@@ -2007,30 +2007,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"8be2f81c-5388-4093-9302-c0d34bf56939","operationData":{"accountIdDebit":3299,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"20d45673-d81e-47c4-b15a-2268a13703a5","operationData":{"accountIdDebit":3299,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8be2f81c-5388-4093-9302-c0d34bf56939\", \"accountIdDebit\": 3299, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"20d45673-d81e-47c4-b15a-2268a13703a5\", \"accountIdDebit\": 3299, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596587,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596619,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8be2f81c-5388-4093-9302-c0d34bf56939\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"20d45673-d81e-47c4-b15a-2268a13703a5\"}"
 </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.105790376663208</v>
+        <v>1.822181940078735</v>
       </c>
     </row>
     <row r="51">
@@ -2039,30 +2039,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"7b132cbc-8614-4592-92b4-e5c5e3252369","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"5c228272-dca9-466b-a04c-34c439694d26","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7b132cbc-8614-4592-92b4-e5c5e3252369\", \"accountIdDebit\": 3506, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"5c228272-dca9-466b-a04c-34c439694d26\", \"accountIdDebit\": 3506, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596588,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596620,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7b132cbc-8614-4592-92b4-e5c5e3252369\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5c228272-dca9-466b-a04c-34c439694d26\"}"
 </t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.427778720855713</v>
+        <v>1.425690650939941</v>
       </c>
     </row>
     <row r="52">
@@ -2077,7 +2077,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c0e9cb07-f575-424e-92c8-f48f6cd390aa\", \"accountIdDebit\": 8071, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"adb1fe2f-aadb-4cee-988b-fb8f15908197\", \"accountIdDebit\": 8071, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2089,12 +2089,12 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c0e9cb07-f575-424e-92c8-f48f6cd390aa\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"adb1fe2f-aadb-4cee-988b-fb8f15908197\"}"
 </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.565052032470703</v>
+        <v>1.930628538131714</v>
       </c>
     </row>
     <row r="53">
@@ -2103,30 +2103,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c659aef6-9d3d-4f7a-a08e-28a31b50b10c","operationData":{"accountIdDebit":2896,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"8b12e17a-7db7-4ef0-9291-1382d16b0175","operationData":{"accountIdDebit":2896,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c659aef6-9d3d-4f7a-a08e-28a31b50b10c\", \"accountIdDebit\": 2896, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"8b12e17a-7db7-4ef0-9291-1382d16b0175\", \"accountIdDebit\": 2896, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596589,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596621,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c659aef6-9d3d-4f7a-a08e-28a31b50b10c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8b12e17a-7db7-4ef0-9291-1382d16b0175\"}"
 </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.15017032623291</v>
+        <v>1.784898281097412</v>
       </c>
     </row>
     <row r="54">
@@ -2135,30 +2135,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"04f6d88f-51db-4eed-b43d-807b78900091","operationData":{"accountIdDebit":2973,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"31eccdac-a93c-4124-be35-41813d7f3587","operationData":{"accountIdDebit":2973,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"04f6d88f-51db-4eed-b43d-807b78900091\", \"accountIdDebit\": 2973, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"31eccdac-a93c-4124-be35-41813d7f3587\", \"accountIdDebit\": 2973, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596590,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596622,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"04f6d88f-51db-4eed-b43d-807b78900091\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"31eccdac-a93c-4124-be35-41813d7f3587\"}"
 </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.232388734817505</v>
+        <v>2.492515325546265</v>
       </c>
     </row>
     <row r="55">
@@ -2167,30 +2167,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"275a29a7-0615-4203-82df-851bb1363984","operationData":{"accountIdDebit":3178,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c","operationData":{"accountIdDebit":3178,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"275a29a7-0615-4203-82df-851bb1363984\", \"accountIdDebit\": 3178, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c\", \"accountIdDebit\": 3178, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596591,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596623,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"275a29a7-0615-4203-82df-851bb1363984\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c\"}"
 </t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.787170171737671</v>
+        <v>1.403375387191772</v>
       </c>
     </row>
     <row r="56">
@@ -2205,7 +2205,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9dc9e410-23c4-4227-b0f5-e85e89713bdb\", \"accountIdDebit\": 3179, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e2db224d-e9be-4d4e-bb0e-6b0602145040\", \"accountIdDebit\": 3179, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2217,12 +2217,12 @@
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9dc9e410-23c4-4227-b0f5-e85e89713bdb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e2db224d-e9be-4d4e-bb0e-6b0602145040\"}"
 </t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.521305084228516</v>
+        <v>1.862547159194946</v>
       </c>
     </row>
     <row r="57">
@@ -2231,30 +2231,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"23ef75c5-91b5-4221-951b-50399a1f66bc","operationData":{"accountIdDebit":8069,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"608bf5f1-f92b-484b-ba74-25c50a191e01","operationData":{"accountIdDebit":8069,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"23ef75c5-91b5-4221-951b-50399a1f66bc\", \"accountIdDebit\": 8069, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"608bf5f1-f92b-484b-ba74-25c50a191e01\", \"accountIdDebit\": 8069, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596592,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596624,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"23ef75c5-91b5-4221-951b-50399a1f66bc\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"608bf5f1-f92b-484b-ba74-25c50a191e01\"}"
 </t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.97899341583252</v>
+        <v>1.773421049118042</v>
       </c>
     </row>
     <row r="58">
@@ -2263,30 +2263,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ca1ea06e-564a-42fb-b772-0bd92129a2da","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f8996dd4-776a-4140-be55-d1a436bd13c7","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ca1ea06e-564a-42fb-b772-0bd92129a2da\", \"accountIdDebit\": 8072, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f8996dd4-776a-4140-be55-d1a436bd13c7\", \"accountIdDebit\": 8072, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596593,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596625,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ca1ea06e-564a-42fb-b772-0bd92129a2da\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f8996dd4-776a-4140-be55-d1a436bd13c7\"}"
 </t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.920365810394287</v>
+        <v>1.847545146942139</v>
       </c>
     </row>
     <row r="59">
@@ -2295,30 +2295,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"7660f583-5d9c-4b42-b5f3-5d43aa69e531","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"62fed6bd-058d-47b8-a009-0a61c21669fd","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7660f583-5d9c-4b42-b5f3-5d43aa69e531\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"62fed6bd-058d-47b8-a009-0a61c21669fd\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596594,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596626,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7660f583-5d9c-4b42-b5f3-5d43aa69e531\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"62fed6bd-058d-47b8-a009-0a61c21669fd\"}"
 </t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.779648303985596</v>
+        <v>1.403788089752197</v>
       </c>
     </row>
     <row r="60">
@@ -2327,30 +2327,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a817483f-c04d-4ce3-93cc-31c03c107530","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"7fd1e305-8445-4eba-aaf8-aa4473f73ee6","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a817483f-c04d-4ce3-93cc-31c03c107530\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7fd1e305-8445-4eba-aaf8-aa4473f73ee6\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596595,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596627,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a817483f-c04d-4ce3-93cc-31c03c107530\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7fd1e305-8445-4eba-aaf8-aa4473f73ee6\"}"
 </t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.857162952423096</v>
+        <v>2.112010478973389</v>
       </c>
     </row>
     <row r="61">
@@ -2359,30 +2359,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"922f49b5-04d3-47af-911f-a3a1e03e40b7","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d631b213-b9d6-44a0-af30-dc1c974114fc","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"922f49b5-04d3-47af-911f-a3a1e03e40b7\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d631b213-b9d6-44a0-af30-dc1c974114fc\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596596,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596628,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"922f49b5-04d3-47af-911f-a3a1e03e40b7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d631b213-b9d6-44a0-af30-dc1c974114fc\"}"
 </t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.234184503555298</v>
+        <v>2.46303653717041</v>
       </c>
     </row>
     <row r="62">
@@ -2397,7 +2397,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b0accb30-dc11-46a2-9d98-47e6451cb220\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"be2231d2-f409-4181-9c20-79ab153d207e\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2409,12 +2409,12 @@
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b0accb30-dc11-46a2-9d98-47e6451cb220\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"be2231d2-f409-4181-9c20-79ab153d207e\"}"
 </t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.530380725860596</v>
+        <v>1.598098516464233</v>
       </c>
     </row>
     <row r="63">
@@ -2429,7 +2429,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"652a9e37-ed05-4a3d-995a-bed969c9fd2e\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"cbf24492-2d1a-4e82-8e0e-14cbada7101b\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2441,12 +2441,12 @@
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"652a9e37-ed05-4a3d-995a-bed969c9fd2e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"cbf24492-2d1a-4e82-8e0e-14cbada7101b\"}"
 </t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.855307102203369</v>
+        <v>1.389478206634521</v>
       </c>
     </row>
     <row r="64">
@@ -2461,7 +2461,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d7228e59-a570-44ed-955a-76a64c00b955\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ef4939a2-6cf4-48f0-b8a5-dc15df8ee065\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2473,12 +2473,12 @@
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d7228e59-a570-44ed-955a-76a64c00b955\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ef4939a2-6cf4-48f0-b8a5-dc15df8ee065\"}"
 </t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.491730213165283</v>
+        <v>1.197548627853394</v>
       </c>
     </row>
     <row r="65">
@@ -2487,30 +2487,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ba65d099-8562-4202-a339-71aba151829c","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ba65d099-8562-4202-a339-71aba151829c\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596597,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596629,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ba65d099-8562-4202-a339-71aba151829c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2\"}"
 </t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.446852207183838</v>
+        <v>1.755767822265625</v>
       </c>
     </row>
     <row r="66">
@@ -2525,7 +2525,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9b85d92e-e0e9-452c-9b35-d3eb6bda95b7\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4cc94a19-50cd-43e0-9353-f4f8f82649ca\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2537,12 +2537,12 @@
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9b85d92e-e0e9-452c-9b35-d3eb6bda95b7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4cc94a19-50cd-43e0-9353-f4f8f82649ca\"}"
 </t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.529250144958496</v>
+        <v>1.221553087234497</v>
       </c>
     </row>
     <row r="67">
@@ -2551,30 +2551,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"8ebc6649-2f99-41c0-9721-49c8584694cf","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a9963d10-4e70-487e-a1ec-0cbb5d2c200e","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8ebc6649-2f99-41c0-9721-49c8584694cf\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a9963d10-4e70-487e-a1ec-0cbb5d2c200e\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596598,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596630,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8ebc6649-2f99-41c0-9721-49c8584694cf\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a9963d10-4e70-487e-a1ec-0cbb5d2c200e\"}"
 </t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.272681713104248</v>
+        <v>2.158298492431641</v>
       </c>
     </row>
     <row r="68">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"00eb0914-258e-489e-961e-319d29f59ae1","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a6aefa40-0a8b-4cc5-9572-def2359ba757","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"00eb0914-258e-489e-961e-319d29f59ae1\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a6aefa40-0a8b-4cc5-9572-def2359ba757\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596599,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596631,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"00eb0914-258e-489e-961e-319d29f59ae1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a6aefa40-0a8b-4cc5-9572-def2359ba757\"}"
 </t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.716044187545776</v>
+        <v>1.835370063781738</v>
       </c>
     </row>
   </sheetData>

--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"fd1b901b-181f-4658-88f0-043c0a2bd9a1","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d548708e-9c41-4f67-a410-567c6d69183e","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"fd1b901b-181f-4658-88f0-043c0a2bd9a1\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d548708e-9c41-4f67-a410-567c6d69183e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596600,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596643,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"fd1b901b-181f-4658-88f0-043c0a2bd9a1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d548708e-9c41-4f67-a410-567c6d69183e\"}"
 </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.994792938232422</v>
+        <v>13.21726107597351</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1f742c71-130b-4593-a910-e133fc4d60ad\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e91418ee-8046-4992-a7bd-6bc18a0d467c\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -521,12 +521,12 @@
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1f742c71-130b-4593-a910-e133fc4d60ad\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e91418ee-8046-4992-a7bd-6bc18a0d467c\"}"
 </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.355547189712524</v>
+        <v>2.354003190994263</v>
       </c>
     </row>
     <row r="4">
@@ -535,30 +535,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"120","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d1a89399-f72d-4ff8-9d87-9bd00f25695e","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d1a89399-f72d-4ff8-9d87-9bd00f25695e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596601,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596644,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f4ff7c8d-8778-48c6-9719-6e4ac6a5a403\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d1a89399-f72d-4ff8-9d87-9bd00f25695e\"}"
 </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.137372016906738</v>
+        <v>2.441635370254517</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ea028831-11f4-4f56-ab8c-1f83adae2792\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"61ee9fd8-8711-48a0-9956-ddd1438a89b5\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -585,12 +585,12 @@
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ea028831-11f4-4f56-ab8c-1f83adae2792\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"61ee9fd8-8711-48a0-9956-ddd1438a89b5\"}"
 </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.888408899307251</v>
+        <v>2.571950197219849</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"92aaa57d-1397-4c70-a46c-f3a68c3c446d\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c5c35ccb-39c4-41af-8da6-17a6ec8fb198\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -617,12 +617,12 @@
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"92aaa57d-1397-4c70-a46c-f3a68c3c446d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c5c35ccb-39c4-41af-8da6-17a6ec8fb198\"}"
 </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.322888374328613</v>
+        <v>1.78828239440918</v>
       </c>
     </row>
     <row r="7">
@@ -637,7 +637,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8d228594-9a81-49aa-ab78-add49844c29e\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f3ef211a-c0e8-4e1b-8748-b0b8073a6817\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -649,12 +649,12 @@
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8d228594-9a81-49aa-ab78-add49844c29e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f3ef211a-c0e8-4e1b-8748-b0b8073a6817\"}"
 </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.347896099090576</v>
+        <v>1.238039016723633</v>
       </c>
     </row>
     <row r="8">
@@ -669,7 +669,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"211734c0-e5a0-42c3-b3dd-dddb96cb118e\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ab64d931-d141-49ad-8bbe-de6a56a147af\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -681,12 +681,12 @@
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"211734c0-e5a0-42c3-b3dd-dddb96cb118e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ab64d931-d141-49ad-8bbe-de6a56a147af\"}"
 </t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.848516941070557</v>
+        <v>1.976389408111572</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +701,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"dc90833e-0011-41b4-a1b5-089024b1dd8d\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f409870c-a601-44f8-b21c-f22185523988\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -713,12 +713,12 @@
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"dc90833e-0011-41b4-a1b5-089024b1dd8d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f409870c-a601-44f8-b21c-f22185523988\"}"
 </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.629795074462891</v>
+        <v>1.868509292602539</v>
       </c>
     </row>
     <row r="10">
@@ -733,7 +733,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"688a3cbd-a1e7-4fc8-a02f-19da8106efcb\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b7492b40-216e-423c-83c1-f49513caa5b3\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -745,12 +745,12 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"688a3cbd-a1e7-4fc8-a02f-19da8106efcb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b7492b40-216e-423c-83c1-f49513caa5b3\"}"
 </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.644150018692017</v>
+        <v>1.855710983276367</v>
       </c>
     </row>
     <row r="11">
@@ -759,30 +759,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"13383147-c5af-4035-af56-8730c9e4dbf1","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"38469945-4b93-457b-8c89-8c5f9619b01f","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"13383147-c5af-4035-af56-8730c9e4dbf1\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"38469945-4b93-457b-8c89-8c5f9619b01f\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596602,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596645,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"13383147-c5af-4035-af56-8730c9e4dbf1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"38469945-4b93-457b-8c89-8c5f9619b01f\"}"
 </t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.437775850296021</v>
+        <v>2.107142925262451</v>
       </c>
     </row>
     <row r="12">
@@ -797,7 +797,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"913f09ec-6142-49fd-8070-e6449148bf6e\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f48e057d-116f-459a-b51a-b530617d0e9d\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -809,12 +809,12 @@
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"913f09ec-6142-49fd-8070-e6449148bf6e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f48e057d-116f-459a-b51a-b530617d0e9d\"}"
 </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.459752559661865</v>
+        <v>1.790074586868286</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f8424432-f8c1-4296-93ad-ccd27de40e73\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"411e8a88-93be-4b88-af42-b043e6240577\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -841,12 +841,12 @@
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f8424432-f8c1-4296-93ad-ccd27de40e73\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"411e8a88-93be-4b88-af42-b043e6240577\"}"
 </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.335542678833008</v>
+        <v>1.966972589492798</v>
       </c>
     </row>
     <row r="14">
@@ -861,7 +861,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c10fffd5-31ac-48d0-8ff2-819c82f6ebd2\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"10581baa-528c-4dbe-8eac-fc023c428bc5\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -873,12 +873,12 @@
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c10fffd5-31ac-48d0-8ff2-819c82f6ebd2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"10581baa-528c-4dbe-8eac-fc023c428bc5\"}"
 </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.535980224609375</v>
+        <v>1.615761756896973</v>
       </c>
     </row>
     <row r="15">
@@ -887,30 +887,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5128fd11-f77d-4710-a380-f3b8571a3a85","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"064c298e-5d70-4d59-90b3-3fe0d7188dcc","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5128fd11-f77d-4710-a380-f3b8571a3a85\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"064c298e-5d70-4d59-90b3-3fe0d7188dcc\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596603,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596646,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5128fd11-f77d-4710-a380-f3b8571a3a85\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"064c298e-5d70-4d59-90b3-3fe0d7188dcc\"}"
 </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.878207445144653</v>
+        <v>1.881786584854126</v>
       </c>
     </row>
     <row r="16">
@@ -925,7 +925,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"52a52f96-3788-4791-9137-f5bcece298b8\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"656c4e92-5b59-48a8-bc6c-dcee28333224\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -937,12 +937,12 @@
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"52a52f96-3788-4791-9137-f5bcece298b8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"656c4e92-5b59-48a8-bc6c-dcee28333224\"}"
 </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.407249689102173</v>
+        <v>1.818147897720337</v>
       </c>
     </row>
     <row r="17">
@@ -951,30 +951,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"01ef3188-d9bd-49d8-8b0c-81e1d329c55c","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"01ef3188-d9bd-49d8-8b0c-81e1d329c55c\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596604,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596647,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d7f618ca-0017-4f8a-8eb1-024f43cbb0b0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"01ef3188-d9bd-49d8-8b0c-81e1d329c55c\"}"
 </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.518348217010498</v>
+        <v>1.782933712005615</v>
       </c>
     </row>
     <row r="18">
@@ -983,30 +983,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a6cc7965-9e52-4e0c-b884-d24d9221d919","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"344.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a6cc7965-9e52-4e0c-b884-d24d9221d919\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596605,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596648,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a6cc7965-9e52-4e0c-b884-d24d9221d919\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7\"}"
 </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.927642345428467</v>
+        <v>2.100662231445312</v>
       </c>
     </row>
     <row r="19">
@@ -1021,7 +1021,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3411b21f-0d29-4484-8cd1-7f1641adccd3\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"0d2db7b6-9229-4ff2-bee3-8ff560539734\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1033,12 +1033,12 @@
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3411b21f-0d29-4484-8cd1-7f1641adccd3\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0d2db7b6-9229-4ff2-bee3-8ff560539734\"}"
 </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.160816669464111</v>
+        <v>1.336278915405273</v>
       </c>
     </row>
     <row r="20">
@@ -1047,30 +1047,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"47643114-d9f9-4db3-96dc-1965bd736335","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"47643114-d9f9-4db3-96dc-1965bd736335\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596606,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596649,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ad57a74d-9ef1-4cc6-b9ea-196a01aa45be\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"47643114-d9f9-4db3-96dc-1965bd736335\"}"
 </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.478660106658936</v>
+        <v>1.729007482528687</v>
       </c>
     </row>
     <row r="21">
@@ -1079,30 +1079,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"697c4277-7ca0-494e-82b3-1ffc15cb61ff","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"346c6ae9-2260-4dc8-b1ef-b821f8d0942b","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"697c4277-7ca0-494e-82b3-1ffc15cb61ff\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"346c6ae9-2260-4dc8-b1ef-b821f8d0942b\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596607,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596650,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"697c4277-7ca0-494e-82b3-1ffc15cb61ff\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"346c6ae9-2260-4dc8-b1ef-b821f8d0942b\"}"
 </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.522393703460693</v>
+        <v>1.787587404251099</v>
       </c>
     </row>
     <row r="22">
@@ -1117,7 +1117,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"52532cfa-2e4c-41dc-aed9-186ade98ef37\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"de033e43-42db-4ac3-aca6-cdb7be9e08a2\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1129,12 +1129,12 @@
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"52532cfa-2e4c-41dc-aed9-186ade98ef37\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"de033e43-42db-4ac3-aca6-cdb7be9e08a2\"}"
 </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.754972219467163</v>
+        <v>1.255141735076904</v>
       </c>
     </row>
     <row r="23">
@@ -1143,30 +1143,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ab8a3154-74c2-4d01-ab43-29342eec6e50","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"bea57e63-5d8e-4487-8af3-56094b0ebfb5","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"55.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ab8a3154-74c2-4d01-ab43-29342eec6e50\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"bea57e63-5d8e-4487-8af3-56094b0ebfb5\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596608,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596651,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ab8a3154-74c2-4d01-ab43-29342eec6e50\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"bea57e63-5d8e-4487-8af3-56094b0ebfb5\"}"
 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.017849445343018</v>
+        <v>1.52351975440979</v>
       </c>
     </row>
     <row r="24">
@@ -1175,30 +1175,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"7219428e-b606-4f3e-bde6-27ac1ba2c9f1","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.88","amountCreditTotal":"1.18","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"1.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"4bbbd834-8312-4d4d-8378-6ef026f33283","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"0.53","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7219428e-b606-4f3e-bde6-27ac1ba2c9f1\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4bbbd834-8312-4d4d-8378-6ef026f33283\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596609,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596652,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7219428e-b606-4f3e-bde6-27ac1ba2c9f1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4bbbd834-8312-4d4d-8378-6ef026f33283\"}"
 </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.638821363449097</v>
+        <v>2.178083181381226</v>
       </c>
     </row>
     <row r="25">
@@ -1207,30 +1207,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c182a270-198c-4a0c-ad52-2e2eb88f8b94","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c182a270-198c-4a0c-ad52-2e2eb88f8b94\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596610,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596653,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c182a270-198c-4a0c-ad52-2e2eb88f8b94\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f\"}"
 </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.430152654647827</v>
+        <v>1.788495302200317</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0af3c340-0772-4d96-9368-24f17f5e34f6\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f4e18908-985c-47a7-b8db-b72e0284dd91\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1257,12 +1257,12 @@
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0af3c340-0772-4d96-9368-24f17f5e34f6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f4e18908-985c-47a7-b8db-b72e0284dd91\"}"
 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.924864768981934</v>
+        <v>1.434859752655029</v>
       </c>
     </row>
     <row r="27">
@@ -1277,7 +1277,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"77873fa7-a24a-4c3a-91ca-d5e2b2d6bcca\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9b51d317-0363-47f7-9020-66e9230584ee\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1289,12 +1289,12 @@
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"77873fa7-a24a-4c3a-91ca-d5e2b2d6bcca\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9b51d317-0363-47f7-9020-66e9230584ee\"}"
 </t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.604687929153442</v>
+        <v>1.23647141456604</v>
       </c>
     </row>
     <row r="28">
@@ -1309,7 +1309,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5d1eca94-4d27-4c6e-a785-a0c9126ffae6\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"bcf9412f-42aa-4cfe-bc0f-aa900a7445aa\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1321,12 +1321,12 @@
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5d1eca94-4d27-4c6e-a785-a0c9126ffae6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"bcf9412f-42aa-4cfe-bc0f-aa900a7445aa\"}"
 </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.713196516036987</v>
+        <v>1.747697830200195</v>
       </c>
     </row>
     <row r="29">
@@ -1335,30 +1335,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d41af71c-55c5-46e5-a305-42064c1e8809","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d41af71c-55c5-46e5-a305-42064c1e8809\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596611,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596654,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d41af71c-55c5-46e5-a305-42064c1e8809\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8\"}"
 </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.726963758468628</v>
+        <v>1.72279167175293</v>
       </c>
     </row>
     <row r="30">
@@ -1367,30 +1367,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ec09f8dc-1dca-4e68-b3a2-626b0690650b","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ec09f8dc-1dca-4e68-b3a2-626b0690650b\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596612,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596655,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"99596c91-c4d7-4f9c-9b4f-ef5977b12f9d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ec09f8dc-1dca-4e68-b3a2-626b0690650b\"}"
 </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.904931306838989</v>
+        <v>1.521396160125732</v>
       </c>
     </row>
     <row r="31">
@@ -1399,13 +1399,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"52e03465-de9b-415a-acb7-e494b3a8325f\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9d5a24ac-c55a-4615-8528-3212e19bc5f7\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1417,12 +1417,12 @@
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"52e03465-de9b-415a-acb7-e494b3a8325f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9d5a24ac-c55a-4615-8528-3212e19bc5f7\"}"
 </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.857079267501831</v>
+        <v>2.067572116851807</v>
       </c>
     </row>
     <row r="32">
@@ -1431,13 +1431,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0686957c-b650-4577-a75a-c6ff6d4f9503\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d7d468d0-df51-4520-b2dd-448e272dcdd1\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1449,12 +1449,12 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0686957c-b650-4577-a75a-c6ff6d4f9503\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d7d468d0-df51-4520-b2dd-448e272dcdd1\"}"
 </t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.511440753936768</v>
+        <v>1.964042663574219</v>
       </c>
     </row>
     <row r="33">
@@ -1463,30 +1463,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e53e4f10-5126-4732-aea1-11b7c85d7984","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"96af2468-d47f-4bc7-9ab3-b5066397a1f3","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e53e4f10-5126-4732-aea1-11b7c85d7984\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"96af2468-d47f-4bc7-9ab3-b5066397a1f3\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596613,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596656,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e53e4f10-5126-4732-aea1-11b7c85d7984\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"96af2468-d47f-4bc7-9ab3-b5066397a1f3\"}"
 </t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.893501043319702</v>
+        <v>1.765169620513916</v>
       </c>
     </row>
     <row r="34">
@@ -1495,13 +1495,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"038e7911-f7f1-4379-bb6f-299d9de4da2c\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"785c207f-8633-4e7c-a40e-67fd62f2236d\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1513,12 +1513,12 @@
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"038e7911-f7f1-4379-bb6f-299d9de4da2c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"785c207f-8633-4e7c-a40e-67fd62f2236d\"}"
 </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.921640634536743</v>
+        <v>1.677160263061523</v>
       </c>
     </row>
     <row r="35">
@@ -1527,13 +1527,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4f207751-63fa-4192-b0f5-e2159a1fd3b6\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ef655eea-cd97-4b86-b23b-29441f8a61f5\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1545,12 +1545,12 @@
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4f207751-63fa-4192-b0f5-e2159a1fd3b6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ef655eea-cd97-4b86-b23b-29441f8a61f5\"}"
 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.679812431335449</v>
+        <v>1.376479864120483</v>
       </c>
     </row>
     <row r="36">
@@ -1559,13 +1559,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f14a13d5-d245-4a72-85e1-81b157558f1a\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e2c13e3d-e6da-4eb4-b71d-82acbf8aaf2f\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1577,12 +1577,12 @@
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f14a13d5-d245-4a72-85e1-81b157558f1a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e2c13e3d-e6da-4eb4-b71d-82acbf8aaf2f\"}"
 </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.162743330001831</v>
+        <v>2.44641375541687</v>
       </c>
     </row>
     <row r="37">
@@ -1597,7 +1597,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b7c17376-f36d-4b62-89d7-d1367b9191e4\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f32e9d90-d326-48be-be79-1828f14c9de7\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1609,12 +1609,12 @@
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b7c17376-f36d-4b62-89d7-d1367b9191e4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f32e9d90-d326-48be-be79-1828f14c9de7\"}"
 </t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.237159729003906</v>
+        <v>1.227707862854004</v>
       </c>
     </row>
     <row r="38">
@@ -1623,13 +1623,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"47373d8b-42f4-45a2-ac2e-ae5f556bd028\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b1dd3a6d-b4b0-4551-877b-b694429ab5fa\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1641,12 +1641,12 @@
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"47373d8b-42f4-45a2-ac2e-ae5f556bd028\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b1dd3a6d-b4b0-4551-877b-b694429ab5fa\"}"
 </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.056997060775757</v>
+        <v>1.974090099334717</v>
       </c>
     </row>
     <row r="39">
@@ -1655,13 +1655,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"80611e94-6df0-49ab-880e-136ad415665f\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d6eaa606-0723-4d14-bb0e-a606491afcf8\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1673,12 +1673,12 @@
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"80611e94-6df0-49ab-880e-136ad415665f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d6eaa606-0723-4d14-bb0e-a606491afcf8\"}"
 </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.443345785140991</v>
+        <v>1.641682863235474</v>
       </c>
     </row>
     <row r="40">
@@ -1693,7 +1693,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0d4a32dd-f738-4474-b889-6588987f6810\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9bb09dcc-b075-485b-8619-753002cf7c28\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1705,12 +1705,12 @@
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0d4a32dd-f738-4474-b889-6588987f6810\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9bb09dcc-b075-485b-8619-753002cf7c28\"}"
 </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55058479309082</v>
+        <v>1.579095602035522</v>
       </c>
     </row>
     <row r="41">
@@ -1725,7 +1725,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"efd7a605-debe-4749-bcc4-068e1cba43be\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b3504a8b-5b0a-4c95-b23b-19f2e60d312f\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1737,12 +1737,12 @@
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"efd7a605-debe-4749-bcc4-068e1cba43be\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b3504a8b-5b0a-4c95-b23b-19f2e60d312f\"}"
 </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.210286378860474</v>
+        <v>1.561445951461792</v>
       </c>
     </row>
     <row r="42">
@@ -1751,30 +1751,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"92d1d9de-e4e3-4512-a36b-50a49be41555","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"1.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"fc9ebac0-c91a-4cc7-a20a-fdb242277220","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"92d1d9de-e4e3-4512-a36b-50a49be41555\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"fc9ebac0-c91a-4cc7-a20a-fdb242277220\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596614,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596657,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"92d1d9de-e4e3-4512-a36b-50a49be41555\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"fc9ebac0-c91a-4cc7-a20a-fdb242277220\"}"
 </t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.754513025283813</v>
+        <v>1.75863242149353</v>
       </c>
     </row>
     <row r="43">
@@ -1789,7 +1789,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c7785c96-b206-4fc9-9832-1d1a929a0fb7\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d15995da-0411-4781-be61-2e5c07f9cdcb\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1801,12 +1801,12 @@
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c7785c96-b206-4fc9-9832-1d1a929a0fb7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d15995da-0411-4781-be61-2e5c07f9cdcb\"}"
 </t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.589486837387085</v>
+        <v>1.972561836242676</v>
       </c>
     </row>
     <row r="44">
@@ -1815,13 +1815,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"bfbd5f20-1324-4416-867b-6c5acb92c678\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"153c7fb6-f84d-4382-9be4-80f721e69856\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1833,113 +1833,113 @@
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"bfbd5f20-1324-4416-867b-6c5acb92c678\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"153c7fb6-f84d-4382-9be4-80f721e69856\"}"
 </t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.711937665939331</v>
+        <v>1.859086036682129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8070</v>
+        <v>11136</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e3eceec3-9d15-4b06-8eed-9a03181a69b1","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"91.74","amountCreditTotal":"1.18","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"137.61","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"02ebe063-6d0e-4415-9a89-aa56ba6639a7","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e3eceec3-9d15-4b06-8eed-9a03181a69b1\", \"accountIdDebit\": 8070, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"02ebe063-6d0e-4415-9a89-aa56ba6639a7\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596615,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596658,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e3eceec3-9d15-4b06-8eed-9a03181a69b1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"02ebe063-6d0e-4415-9a89-aa56ba6639a7\"}"
 </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.786257743835449</v>
+        <v>1.716399192810059</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3103</v>
+        <v>11137</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"931a4e57-987b-49f2-bc02-f21b85b9a186","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"b3e11a8d-8dc7-4439-b673-dbd14ffc9315","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"931a4e57-987b-49f2-bc02-f21b85b9a186\", \"accountIdDebit\": 3103, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b3e11a8d-8dc7-4439-b673-dbd14ffc9315\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596616,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596659,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"931a4e57-987b-49f2-bc02-f21b85b9a186\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b3e11a8d-8dc7-4439-b673-dbd14ffc9315\"}"
 </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.499990224838257</v>
+        <v>1.471164226531982</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2820</v>
+        <v>11131</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3c3426b5-c6fa-4c06-b767-fca8eca20a97","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"78e34cfc-1628-4f6f-9905-b63b9f2d1120","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3c3426b5-c6fa-4c06-b767-fca8eca20a97\", \"accountIdDebit\": 2820, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"78e34cfc-1628-4f6f-9905-b63b9f2d1120\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596617,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596660,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3c3426b5-c6fa-4c06-b767-fca8eca20a97\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"78e34cfc-1628-4f6f-9905-b63b9f2d1120\"}"
 </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.827049493789673</v>
+        <v>1.43399453163147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2897</v>
+        <v>3007</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4596bbb1-8682-462e-b792-7c979e60bc78\", \"accountIdDebit\": 2897, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f3824b7f-a975-4759-9cb8-ae386a18db6e\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1961,123 +1961,123 @@
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4596bbb1-8682-462e-b792-7c979e60bc78\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f3824b7f-a975-4759-9cb8-ae386a18db6e\"}"
 </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.032106399536133</v>
+        <v>1.218800783157349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11106</v>
+        <v>3201</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4","operationData":{"accountIdDebit":11106,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4\", \"accountIdDebit\": 11106, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9f1f1993-ba68-4a8f-b261-2f8da7141cf1\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596618,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"76d1e843-ec54-4ade-b5d3-01f4e9cc88a4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9f1f1993-ba68-4a8f-b261-2f8da7141cf1\"}"
 </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.091209411621094</v>
+        <v>1.482257127761841</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3299</v>
+        <v>2847</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"20d45673-d81e-47c4-b15a-2268a13703a5","operationData":{"accountIdDebit":3299,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"20d45673-d81e-47c4-b15a-2268a13703a5\", \"accountIdDebit\": 3299, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"977cc94b-6592-4565-b006-7d48667213e7\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596619,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"20d45673-d81e-47c4-b15a-2268a13703a5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"977cc94b-6592-4565-b006-7d48667213e7\"}"
 </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.822181940078735</v>
+        <v>1.608073949813843</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3506</v>
+        <v>3200</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5c228272-dca9-466b-a04c-34c439694d26","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f0762a2f-8b74-4077-97d9-8637eaf2f806","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5c228272-dca9-466b-a04c-34c439694d26\", \"accountIdDebit\": 3506, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f0762a2f-8b74-4077-97d9-8637eaf2f806\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596620,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596661,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5c228272-dca9-466b-a04c-34c439694d26\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f0762a2f-8b74-4077-97d9-8637eaf2f806\"}"
 </t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.425690650939941</v>
+        <v>2.228471279144287</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8071</v>
+        <v>3078</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"adb1fe2f-aadb-4cee-988b-fb8f15908197\", \"accountIdDebit\": 8071, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7baf9d94-ecaf-41fe-a623-847bc81d9d25\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2089,524 +2089,76 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"adb1fe2f-aadb-4cee-988b-fb8f15908197\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7baf9d94-ecaf-41fe-a623-847bc81d9d25\"}"
 </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.930628538131714</v>
+        <v>1.246605634689331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2896</v>
+        <v>3133</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"8b12e17a-7db7-4ef0-9291-1382d16b0175","operationData":{"accountIdDebit":2896,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c10c6f55-1a0e-402c-b9f1-c122ee5839b8","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8b12e17a-7db7-4ef0-9291-1382d16b0175\", \"accountIdDebit\": 2896, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c10c6f55-1a0e-402c-b9f1-c122ee5839b8\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596621,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596662,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8b12e17a-7db7-4ef0-9291-1382d16b0175\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c10c6f55-1a0e-402c-b9f1-c122ee5839b8\"}"
 </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.784898281097412</v>
+        <v>1.729992628097534</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2973</v>
+        <v>3006</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"31eccdac-a93c-4124-be35-41813d7f3587","operationData":{"accountIdDebit":2973,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"296992fc-001e-42d1-89db-82b9713ad808","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"31eccdac-a93c-4124-be35-41813d7f3587\", \"accountIdDebit\": 2973, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"296992fc-001e-42d1-89db-82b9713ad808\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596622,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596663,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"31eccdac-a93c-4124-be35-41813d7f3587\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"296992fc-001e-42d1-89db-82b9713ad808\"}"
 </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.492515325546265</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3178</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c","operationData":{"accountIdDebit":3178,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c\", \"accountIdDebit\": 3178, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596623,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e9a71f7c-fca8-4f7f-95cf-c65c732ec77c\"}"
-</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1.403375387191772</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3179</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e2db224d-e9be-4d4e-bb0e-6b0602145040\", \"accountIdDebit\": 3179, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e2db224d-e9be-4d4e-bb0e-6b0602145040\"}"
-</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1.862547159194946</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>8069</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"608bf5f1-f92b-484b-ba74-25c50a191e01","operationData":{"accountIdDebit":8069,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"608bf5f1-f92b-484b-ba74-25c50a191e01\", \"accountIdDebit\": 8069, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596624,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"608bf5f1-f92b-484b-ba74-25c50a191e01\"}"
-</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1.773421049118042</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>8072</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"f8996dd4-776a-4140-be55-d1a436bd13c7","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"571.43","amountCreditTotal":"1.28","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"857.14","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f8996dd4-776a-4140-be55-d1a436bd13c7\", \"accountIdDebit\": 8072, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596625,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f8996dd4-776a-4140-be55-d1a436bd13c7\"}"
-</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1.847545146942139</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>11136</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"62fed6bd-058d-47b8-a009-0a61c21669fd","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"62fed6bd-058d-47b8-a009-0a61c21669fd\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596626,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"62fed6bd-058d-47b8-a009-0a61c21669fd\"}"
-</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1.403788089752197</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>11137</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"7fd1e305-8445-4eba-aaf8-aa4473f73ee6","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.05","amountCreditTotal":"1.18","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"1.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7fd1e305-8445-4eba-aaf8-aa4473f73ee6\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596627,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7fd1e305-8445-4eba-aaf8-aa4473f73ee6\"}"
-</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2.112010478973389</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>11131</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"d631b213-b9d6-44a0-af30-dc1c974114fc","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d631b213-b9d6-44a0-af30-dc1c974114fc\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596628,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d631b213-b9d6-44a0-af30-dc1c974114fc\"}"
-</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2.46303653717041</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3007</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"be2231d2-f409-4181-9c20-79ab153d207e\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"be2231d2-f409-4181-9c20-79ab153d207e\"}"
-</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1.598098516464233</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3201</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"cbf24492-2d1a-4e82-8e0e-14cbada7101b\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"cbf24492-2d1a-4e82-8e0e-14cbada7101b\"}"
-</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>1.389478206634521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ef4939a2-6cf4-48f0-b8a5-dc15df8ee065\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ef4939a2-6cf4-48f0-b8a5-dc15df8ee065\"}"
-</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1.197548627853394</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3200</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596629,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ff5e0143-4d2e-4c52-a88c-1ff391ef2df2\"}"
-</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1.755767822265625</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3078</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4cc94a19-50cd-43e0-9353-f4f8f82649ca\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4cc94a19-50cd-43e0-9353-f4f8f82649ca\"}"
-</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1.221553087234497</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3133</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"a9963d10-4e70-487e-a1ec-0cbb5d2c200e","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"100","amountCreditTotal":"1.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"150","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a9963d10-4e70-487e-a1ec-0cbb5d2c200e\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596630,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a9963d10-4e70-487e-a1ec-0cbb5d2c200e\"}"
-</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>2.158298492431641</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3006</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"a6aefa40-0a8b-4cc5-9572-def2359ba757","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.12","amountCreditTotal":"1.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"1.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a6aefa40-0a8b-4cc5-9572-def2359ba757\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"100\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596631,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a6aefa40-0a8b-4cc5-9572-def2359ba757\"}"
-</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1.835370063781738</v>
+        <v>1.74885892868042</v>
       </c>
     </row>
   </sheetData>

--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,273 +467,273 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10996</v>
+        <v>10656</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d548708e-9c41-4f67-a410-567c6d69183e","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"14ff95be-12b8-48df-be8f-c676987fa6d9","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.21","amountDebitTotal":"0.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d548708e-9c41-4f67-a410-567c6d69183e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"14ff95be-12b8-48df-be8f-c676987fa6d9\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596643,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596905,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d548708e-9c41-4f67-a410-567c6d69183e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"14ff95be-12b8-48df-be8f-c676987fa6d9\"}"
 </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13.21726107597351</v>
+        <v>6.535039663314819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10995</v>
+        <v>10655</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"5d8b930e-31e5-42d8-a3bb-d219796124d1","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"18.35","amountDebitTotal":"27.8","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e91418ee-8046-4992-a7bd-6bc18a0d467c\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"5d8b930e-31e5-42d8-a3bb-d219796124d1\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596904,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e91418ee-8046-4992-a7bd-6bc18a0d467c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5d8b930e-31e5-42d8-a3bb-d219796124d1\"}"
 </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.354003190994263</v>
+        <v>6.342062473297119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10996</v>
+        <v>10658</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d1a89399-f72d-4ff8-9d87-9bd00f25695e","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ad3b6c9c-2562-4091-ae36-682b4c6361a0","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.18","amountDebitTotal":"0.27","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d1a89399-f72d-4ff8-9d87-9bd00f25695e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ad3b6c9c-2562-4091-ae36-682b4c6361a0\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596644,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596906,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d1a89399-f72d-4ff8-9d87-9bd00f25695e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ad3b6c9c-2562-4091-ae36-682b4c6361a0\"}"
 </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.441635370254517</v>
+        <v>6.59605073928833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10995</v>
+        <v>10615</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"bd2c5813-9ad7-4d2d-bf58-f90c1729325a","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"61ee9fd8-8711-48a0-9956-ddd1438a89b5\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"bd2c5813-9ad7-4d2d-bf58-f90c1729325a\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596901,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"61ee9fd8-8711-48a0-9956-ddd1438a89b5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"bd2c5813-9ad7-4d2d-bf58-f90c1729325a\"}"
 </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.571950197219849</v>
+        <v>6.252554655075073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8731</v>
+        <v>10390</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6d97c96f-8873-469b-9258-6ae3fcf68ac9","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c5c35ccb-39c4-41af-8da6-17a6ec8fb198\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"6d97c96f-8873-469b-9258-6ae3fcf68ac9\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596902,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c5c35ccb-39c4-41af-8da6-17a6ec8fb198\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6d97c96f-8873-469b-9258-6ae3fcf68ac9\"}"
 </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78828239440918</v>
+        <v>6.244894742965698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8729</v>
+        <v>10653</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f3ef211a-c0e8-4e1b-8748-b0b8073a6817\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596907,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f3ef211a-c0e8-4e1b-8748-b0b8073a6817\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a\"}"
 </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.238039016723633</v>
+        <v>6.659701824188232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8730</v>
+        <v>10654</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ec743e84-630c-47af-b0ab-577100c32449","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"114.29","amountDebitTotal":"173.15","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ab64d931-d141-49ad-8bbe-de6a56a147af\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ec743e84-630c-47af-b0ab-577100c32449\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596908,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ab64d931-d141-49ad-8bbe-de6a56a147af\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ec743e84-630c-47af-b0ab-577100c32449\"}"
 </t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.976389408111572</v>
+        <v>7.73288369178772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8728</v>
+        <v>223</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f409870c-a601-44f8-b21c-f22185523988\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596903,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f409870c-a601-44f8-b21c-f22185523988\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d\"}"
 </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.868509292602539</v>
+        <v>6.306056499481201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8727</v>
+        <v>3587</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b7492b40-216e-423c-83c1-f49513caa5b3\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"95ad2d66-3f41-4e63-8e75-6468e34f2a29\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -745,59 +745,59 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b7492b40-216e-423c-83c1-f49513caa5b3\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"95ad2d66-3f41-4e63-8e75-6468e34f2a29\"}"
 </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.855710983276367</v>
+        <v>6.622813701629639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>223</v>
+        <v>3517</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"38469945-4b93-457b-8c89-8c5f9619b01f","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"38469945-4b93-457b-8c89-8c5f9619b01f\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"33211bc9-8430-40c6-a80f-af5f2cd1f6ba\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596645,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"38469945-4b93-457b-8c89-8c5f9619b01f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"33211bc9-8430-40c6-a80f-af5f2cd1f6ba\"}"
 </t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.107142925262451</v>
+        <v>5.934513330459595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3587</v>
+        <v>186</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f48e057d-116f-459a-b51a-b530617d0e9d\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a8b41622-12c4-4fa8-8b8d-da366235b059\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -809,59 +809,59 @@
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f48e057d-116f-459a-b51a-b530617d0e9d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a8b41622-12c4-4fa8-8b8d-da366235b059\"}"
 </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.790074586868286</v>
+        <v>5.65089750289917</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3517</v>
+        <v>10954</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3633ad14-f49c-43ce-8b35-ebc9876d9239","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"411e8a88-93be-4b88-af42-b043e6240577\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3633ad14-f49c-43ce-8b35-ebc9876d9239\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596911,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"411e8a88-93be-4b88-af42-b043e6240577\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3633ad14-f49c-43ce-8b35-ebc9876d9239\"}"
 </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.966972589492798</v>
+        <v>6.241243839263916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"10581baa-528c-4dbe-8eac-fc023c428bc5\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1e292083-be70-4b24-bac9-b1a48924a515\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -873,379 +873,379 @@
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"10581baa-528c-4dbe-8eac-fc023c428bc5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1e292083-be70-4b24-bac9-b1a48924a515\"}"
 </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.615761756896973</v>
+        <v>6.046047687530518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10954</v>
+        <v>250</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"064c298e-5d70-4d59-90b3-3fe0d7188dcc","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"182faa92-50bd-4141-88cf-847fc8d89873","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"064c298e-5d70-4d59-90b3-3fe0d7188dcc\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"182faa92-50bd-4141-88cf-847fc8d89873\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596646,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596910,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"064c298e-5d70-4d59-90b3-3fe0d7188dcc\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"182faa92-50bd-4141-88cf-847fc8d89873\"}"
 </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.881786584854126</v>
+        <v>5.937078237533569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"344.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"656c4e92-5b59-48a8-bc6c-dcee28333224\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596909,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"656c4e92-5b59-48a8-bc6c-dcee28333224\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e\"}"
 </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.818147897720337</v>
+        <v>5.906064510345459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250</v>
+        <v>8641</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"01ef3188-d9bd-49d8-8b0c-81e1d329c55c","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"01ef3188-d9bd-49d8-8b0c-81e1d329c55c\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"11e25fbb-1f36-4a55-ac8a-8f1f0c2cd426\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596647,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"01ef3188-d9bd-49d8-8b0c-81e1d329c55c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"11e25fbb-1f36-4a55-ac8a-8f1f0c2cd426\"}"
 </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.782933712005615</v>
+        <v>5.813300132751465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>172</v>
+        <v>3509</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"344.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"62078789-8322-45be-a2a5-c5bd0110a419","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"62078789-8322-45be-a2a5-c5bd0110a419\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596648,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596912,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2f34b06f-5171-4ab6-9a2e-87cd8d8758c7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"62078789-8322-45be-a2a5-c5bd0110a419\"}"
 </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.100662231445312</v>
+        <v>5.948916912078857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8641</v>
+        <v>2769</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"cc20d89f-8f90-4158-9357-288d51c87719","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0d2db7b6-9229-4ff2-bee3-8ff560539734\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"cc20d89f-8f90-4158-9357-288d51c87719\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596913,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0d2db7b6-9229-4ff2-bee3-8ff560539734\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"cc20d89f-8f90-4158-9357-288d51c87719\"}"
 </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.336278915405273</v>
+        <v>5.536776065826416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3509</v>
+        <v>185</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"47643114-d9f9-4db3-96dc-1965bd736335","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"47643114-d9f9-4db3-96dc-1965bd736335\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7f6c647b-1a7d-4cbd-ba71-8e56b4ce6d88\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596649,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"47643114-d9f9-4db3-96dc-1965bd736335\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7f6c647b-1a7d-4cbd-ba71-8e56b4ce6d88\"}"
 </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.729007482528687</v>
+        <v>5.52910041809082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2769</v>
+        <v>231</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"346c6ae9-2260-4dc8-b1ef-b821f8d0942b","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"48b92ac1-ad9a-4ff8-a949-0299e11b6410","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"55.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"346c6ae9-2260-4dc8-b1ef-b821f8d0942b\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"48b92ac1-ad9a-4ff8-a949-0299e11b6410\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596650,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596916,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"346c6ae9-2260-4dc8-b1ef-b821f8d0942b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"48b92ac1-ad9a-4ff8-a949-0299e11b6410\"}"
 </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.787587404251099</v>
+        <v>6.314439296722412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"44bf8711-7c5d-466e-9000-43dac782daa2","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"0.53","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"de033e43-42db-4ac3-aca6-cdb7be9e08a2\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"44bf8711-7c5d-466e-9000-43dac782daa2\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596915,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"de033e43-42db-4ac3-aca6-cdb7be9e08a2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"44bf8711-7c5d-466e-9000-43dac782daa2\"}"
 </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.255141735076904</v>
+        <v>5.947421073913574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>231</v>
+        <v>11049</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"bea57e63-5d8e-4487-8af3-56094b0ebfb5","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"55.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"723a3a68-f457-4287-9db6-44c29ea394c0","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"bea57e63-5d8e-4487-8af3-56094b0ebfb5\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"723a3a68-f457-4287-9db6-44c29ea394c0\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596651,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596914,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"bea57e63-5d8e-4487-8af3-56094b0ebfb5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"723a3a68-f457-4287-9db6-44c29ea394c0\"}"
 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.52351975440979</v>
+        <v>5.88640832901001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>237</v>
+        <v>3586</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"4bbbd834-8312-4d4d-8378-6ef026f33283","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"0.53","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4bbbd834-8312-4d4d-8378-6ef026f33283\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"946bea6e-8ce9-4afe-8e4f-0110031d7a91\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596652,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4bbbd834-8312-4d4d-8378-6ef026f33283\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"946bea6e-8ce9-4afe-8e4f-0110031d7a91\"}"
 </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.178083181381226</v>
+        <v>9.377859592437744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11049</v>
+        <v>238504</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"19faf96a-2b25-4204-be50-078f0ec17a01\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596653,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4aa86fc0-6df7-4570-94a2-7d6cd3c5201f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"19faf96a-2b25-4204-be50-078f0ec17a01\"}"
 </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.788495302200317</v>
+        <v>7.333499908447266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3586</v>
+        <v>247805</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f4e18908-985c-47a7-b8db-b72e0284dd91\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a5d3e0fa-bbc5-40f2-a396-44318aa395c7\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1257,187 +1257,187 @@
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f4e18908-985c-47a7-b8db-b72e0284dd91\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a5d3e0fa-bbc5-40f2-a396-44318aa395c7\"}"
 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.434859752655029</v>
+        <v>5.528303146362305</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>238504</v>
+        <v>2791</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"58d21952-d654-4db5-b58e-19849abcc267","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9b51d317-0363-47f7-9020-66e9230584ee\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"58d21952-d654-4db5-b58e-19849abcc267\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596918,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9b51d317-0363-47f7-9020-66e9230584ee\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"58d21952-d654-4db5-b58e-19849abcc267\"}"
 </t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.23647141456604</v>
+        <v>7.227005243301392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>247805</v>
+        <v>209</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"9dde777d-d8a4-4f17-8282-de635a716e3a","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"bcf9412f-42aa-4cfe-bc0f-aa900a7445aa\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9dde777d-d8a4-4f17-8282-de635a716e3a\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596917,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"bcf9412f-42aa-4cfe-bc0f-aa900a7445aa\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9dde777d-d8a4-4f17-8282-de635a716e3a\"}"
 </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.747697830200195</v>
+        <v>5.896492719650269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2791</v>
+        <v>10996</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"af38cd65-4122-429e-a117-56d8d727bb5f","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"af38cd65-4122-429e-a117-56d8d727bb5f\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596654,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596919,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6d081ddd-8fbc-4f81-bb95-da7bcfede8f8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"af38cd65-4122-429e-a117-56d8d727bb5f\"}"
 </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.72279167175293</v>
+        <v>5.622198820114136</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>209</v>
+        <v>10995</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ec09f8dc-1dca-4e68-b3a2-626b0690650b","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ec09f8dc-1dca-4e68-b3a2-626b0690650b\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"aaf16a9f-addf-445c-8ce3-abd4400fb73d\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596655,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ec09f8dc-1dca-4e68-b3a2-626b0690650b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"aaf16a9f-addf-445c-8ce3-abd4400fb73d\"}"
 </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.521396160125732</v>
+        <v>5.59976053237915</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8714</v>
+        <v>10996</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"2496dba7-3337-4689-af99-0339944a62c6","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9d5a24ac-c55a-4615-8528-3212e19bc5f7\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2496dba7-3337-4689-af99-0339944a62c6\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596920,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9d5a24ac-c55a-4615-8528-3212e19bc5f7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2496dba7-3337-4689-af99-0339944a62c6\"}"
 </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.067572116851807</v>
+        <v>5.638120174407959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10707</v>
+        <v>10995</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d7d468d0-df51-4520-b2dd-448e272dcdd1\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"26386d13-3192-451d-841d-9af244450428\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1449,251 +1449,251 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d7d468d0-df51-4520-b2dd-448e272dcdd1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"26386d13-3192-451d-841d-9af244450428\"}"
 </t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.964042663574219</v>
+        <v>5.536115407943726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8716</v>
+        <v>10656</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"96af2468-d47f-4bc7-9ab3-b5066397a1f3","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"355e8fa4-bfcd-46a1-af6e-c9360416eb57","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.21","amountDebitTotal":"0.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"96af2468-d47f-4bc7-9ab3-b5066397a1f3\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"355e8fa4-bfcd-46a1-af6e-c9360416eb57\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596656,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596923,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"96af2468-d47f-4bc7-9ab3-b5066397a1f3\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"355e8fa4-bfcd-46a1-af6e-c9360416eb57\"}"
 </t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.765169620513916</v>
+        <v>7.484938621520996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10696</v>
+        <v>10655</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"18.35","amountDebitTotal":"27.8","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"785c207f-8633-4e7c-a40e-67fd62f2236d\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596921,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"785c207f-8633-4e7c-a40e-67fd62f2236d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c\"}"
 </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.677160263061523</v>
+        <v>6.12159276008606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8710</v>
+        <v>10658</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.18","amountDebitTotal":"0.27","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ef655eea-cd97-4b86-b23b-29441f8a61f5\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596922,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ef655eea-cd97-4b86-b23b-29441f8a61f5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca\"}"
 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.376479864120483</v>
+        <v>5.730122566223145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10295</v>
+        <v>10615</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"9fcffcad-db8b-4e0a-841a-4c422bd5c830","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e2c13e3d-e6da-4eb4-b71d-82acbf8aaf2f\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9fcffcad-db8b-4e0a-841a-4c422bd5c830\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596924,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e2c13e3d-e6da-4eb4-b71d-82acbf8aaf2f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9fcffcad-db8b-4e0a-841a-4c422bd5c830\"}"
 </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.44641375541687</v>
+        <v>7.432476043701172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8724</v>
+        <v>10390</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"338e9378-f032-4904-899a-80dbf426be3d","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f32e9d90-d326-48be-be79-1828f14c9de7\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"338e9378-f032-4904-899a-80dbf426be3d\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596925,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f32e9d90-d326-48be-be79-1828f14c9de7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"338e9378-f032-4904-899a-80dbf426be3d\"}"
 </t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.227707862854004</v>
+        <v>5.731605529785156</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8718</v>
+        <v>10653</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"efa4f320-f05d-4140-ab33-a98b2a387d0a","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b1dd3a6d-b4b0-4551-877b-b694429ab5fa\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"efa4f320-f05d-4140-ab33-a98b2a387d0a\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596927,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b1dd3a6d-b4b0-4551-877b-b694429ab5fa\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"efa4f320-f05d-4140-ab33-a98b2a387d0a\"}"
 </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.974090099334717</v>
+        <v>7.746731996536255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8717</v>
+        <v>10654</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"114.29","amountDebitTotal":"173.15","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d6eaa606-0723-4d14-bb0e-a606491afcf8\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596926,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d6eaa606-0723-4d14-bb0e-a606491afcf8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4\"}"
 </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.641682863235474</v>
+        <v>7.151475191116333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8723</v>
+        <v>8731</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9bb09dcc-b075-485b-8619-753002cf7c28\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"abd06906-3c89-4914-82be-04a71c1e7ebf\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1705,27 +1705,27 @@
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9bb09dcc-b075-485b-8619-753002cf7c28\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"abd06906-3c89-4914-82be-04a71c1e7ebf\"}"
 </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.579095602035522</v>
+        <v>7.481932163238525</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8720</v>
+        <v>8729</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b3504a8b-5b0a-4c95-b23b-19f2e60d312f\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"8c18f659-c920-4f63-990f-63b109ff4de3\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1737,59 +1737,59 @@
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b3504a8b-5b0a-4c95-b23b-19f2e60d312f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8c18f659-c920-4f63-990f-63b109ff4de3\"}"
 </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.561445951461792</v>
+        <v>5.65263295173645</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8715</v>
+        <v>8730</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"fc9ebac0-c91a-4cc7-a20a-fdb242277220","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"fc9ebac0-c91a-4cc7-a20a-fdb242277220\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1176c693-09f5-4485-ad2c-e552d96b94ea\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596657,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"fc9ebac0-c91a-4cc7-a20a-fdb242277220\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1176c693-09f5-4485-ad2c-e552d96b94ea\"}"
 </t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.75863242149353</v>
+        <v>5.303071022033691</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8722</v>
+        <v>8728</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d15995da-0411-4781-be61-2e5c07f9cdcb\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1b1c6420-fdf9-4954-93c5-ce1e38905be8\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1801,27 +1801,27 @@
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d15995da-0411-4781-be61-2e5c07f9cdcb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1b1c6420-fdf9-4954-93c5-ce1e38905be8\"}"
 </t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.972561836242676</v>
+        <v>5.456175804138184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8711</v>
+        <v>8727</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"153c7fb6-f84d-4382-9be4-80f721e69856\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"67917b5d-4b13-4d5c-8291-949660b26642\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1833,123 +1833,123 @@
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"153c7fb6-f84d-4382-9be4-80f721e69856\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"67917b5d-4b13-4d5c-8291-949660b26642\"}"
 </t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.859086036682129</v>
+        <v>5.291803598403931</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11136</v>
+        <v>8714</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"02ebe063-6d0e-4415-9a89-aa56ba6639a7","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"02ebe063-6d0e-4415-9a89-aa56ba6639a7\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"48f089d4-bac2-4924-b001-79800f8adb88\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596658,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"02ebe063-6d0e-4415-9a89-aa56ba6639a7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"48f089d4-bac2-4924-b001-79800f8adb88\"}"
 </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.716399192810059</v>
+        <v>7.288801908493042</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11137</v>
+        <v>10707</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"b3e11a8d-8dc7-4439-b673-dbd14ffc9315","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b3e11a8d-8dc7-4439-b673-dbd14ffc9315\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"cfe2db65-8525-40e6-922c-546044468588\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596659,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b3e11a8d-8dc7-4439-b673-dbd14ffc9315\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"cfe2db65-8525-40e6-922c-546044468588\"}"
 </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.471164226531982</v>
+        <v>5.921650886535645</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11131</v>
+        <v>8716</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"78e34cfc-1628-4f6f-9905-b63b9f2d1120","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a55f733c-aca5-4067-9c72-10138bd5b992","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"78e34cfc-1628-4f6f-9905-b63b9f2d1120\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a55f733c-aca5-4067-9c72-10138bd5b992\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596660,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3596928,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"78e34cfc-1628-4f6f-9905-b63b9f2d1120\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a55f733c-aca5-4067-9c72-10138bd5b992\"}"
 </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.43399453163147</v>
+        <v>5.734614133834839</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3007</v>
+        <v>10696</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f3824b7f-a975-4759-9cb8-ae386a18db6e\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a275db05-13be-4048-9bb2-a6ab68fcd647\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1961,27 +1961,27 @@
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f3824b7f-a975-4759-9cb8-ae386a18db6e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a275db05-13be-4048-9bb2-a6ab68fcd647\"}"
 </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.218800783157349</v>
+        <v>5.633624315261841</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3201</v>
+        <v>8710</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9f1f1993-ba68-4a8f-b261-2f8da7141cf1\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3b63fc71-8533-4166-aec3-04de90972b17\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1993,27 +1993,27 @@
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9f1f1993-ba68-4a8f-b261-2f8da7141cf1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3b63fc71-8533-4166-aec3-04de90972b17\"}"
 </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.482257127761841</v>
+        <v>6.054328680038452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2847</v>
+        <v>10295</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"977cc94b-6592-4565-b006-7d48667213e7\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f507c8e8-125f-48d5-99d5-c5728a71dc24\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2025,59 +2025,59 @@
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"977cc94b-6592-4565-b006-7d48667213e7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f507c8e8-125f-48d5-99d5-c5728a71dc24\"}"
 </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.608073949813843</v>
+        <v>5.852547645568848</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3200</v>
+        <v>8724</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f0762a2f-8b74-4077-97d9-8637eaf2f806","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f0762a2f-8b74-4077-97d9-8637eaf2f806\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2a7c99f0-1531-40df-8ca3-bd60ad5c33a2\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596661,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f0762a2f-8b74-4077-97d9-8637eaf2f806\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2a7c99f0-1531-40df-8ca3-bd60ad5c33a2\"}"
 </t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.228471279144287</v>
+        <v>5.289485454559326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3078</v>
+        <v>8718</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7baf9d94-ecaf-41fe-a623-847bc81d9d25\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"99e0db3d-fe34-4c02-b41d-7839177db6af\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2089,76 +2089,652 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7baf9d94-ecaf-41fe-a623-847bc81d9d25\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"99e0db3d-fe34-4c02-b41d-7839177db6af\"}"
 </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.246605634689331</v>
+        <v>5.565221786499023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3133</v>
+        <v>8717</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c10c6f55-1a0e-402c-b9f1-c122ee5839b8","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c10c6f55-1a0e-402c-b9f1-c122ee5839b8\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9d9df97e-c243-4ae5-b36b-4062b7e8db6a\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596662,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c10c6f55-1a0e-402c-b9f1-c122ee5839b8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9d9df97e-c243-4ae5-b36b-4062b7e8db6a\"}"
 </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.729992628097534</v>
+        <v>8.694060087203979</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>8723</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"f110f417-d6c8-41bc-a1dd-8e959e4e272e\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"f110f417-d6c8-41bc-a1dd-8e959e4e272e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5.577007055282593</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8720</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"65cbab3c-bc3f-4e57-8b7e-2be8293e4a02\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"65cbab3c-bc3f-4e57-8b7e-2be8293e4a02\"}"
+</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>6.964978694915771</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8715</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"d0e33143-392e-441f-86c0-b267e528f13e","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d0e33143-392e-441f-86c0-b267e528f13e\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596930,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d0e33143-392e-441f-86c0-b267e528f13e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>7.325019359588623</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8722</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"86852575-374f-4772-a921-da0c7d87260c\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"86852575-374f-4772-a921-da0c7d87260c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5.948356151580811</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8711</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"00e8b3fd-6071-460d-af69-1c73dbad9921\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"00e8b3fd-6071-460d-af69-1c73dbad9921\"}"
+</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>5.779223680496216</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11136</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"577a0388-0600-4889-805d-5142fa8a857f","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"577a0388-0600-4889-805d-5142fa8a857f\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596931,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"577a0388-0600-4889-805d-5142fa8a857f\"}"
+</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>7.191490411758423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11137</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"28b7d04d-5d7b-430e-932c-9a281361c5f4","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"28b7d04d-5d7b-430e-932c-9a281361c5f4\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596932,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"28b7d04d-5d7b-430e-932c-9a281361c5f4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>8.711952924728394</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11131</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"ecba1cda-1a99-4f8a-9260-11f526c3166d","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"ecba1cda-1a99-4f8a-9260-11f526c3166d\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596929,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"ecba1cda-1a99-4f8a-9260-11f526c3166d\"}"
+</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5.567610502243042</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"97f160af-f30c-4957-a9c3-46dc58c22d8b\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"97f160af-f30c-4957-a9c3-46dc58c22d8b\"}"
+</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5.448084354400635</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"09ff44a5-1c5e-4d9f-bba7-6699cf1a24b8\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"09ff44a5-1c5e-4d9f-bba7-6699cf1a24b8\"}"
+</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5.471133947372437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c8c7ef8b-016b-4f2d-bab7-eb3aac1b5cd8\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c8c7ef8b-016b-4f2d-bab7-eb3aac1b5cd8\"}"
+</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>6.065468549728394</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"e3016b5d-4fdf-49ec-bcf4-31573d3b35da","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"e3016b5d-4fdf-49ec-bcf4-31573d3b35da\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596935,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"e3016b5d-4fdf-49ec-bcf4-31573d3b35da\"}"
+</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>7.33622407913208</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"1367dbb9-7c6b-4401-89c8-66da3eb23d8d\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"1367dbb9-7c6b-4401-89c8-66da3eb23d8d\"}"
+</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>6.927973985671997</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3133</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"24c631fd-865a-4ec7-9888-ec15613f9c74","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"24c631fd-865a-4ec7-9888-ec15613f9c74\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596933,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"24c631fd-865a-4ec7-9888-ec15613f9c74\"}"
+</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5.894896984100342</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
         <v>3006</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"operationId":"296992fc-001e-42d1-89db-82b9713ad808","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"296992fc-001e-42d1-89db-82b9713ad808\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
-</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>{'success': True, 'data': '{"txnId":3596663,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"296992fc-001e-42d1-89db-82b9713ad808\"}"
-</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1.74885892868042</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"c617d478-328e-4e44-aaff-445d182b34a4","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c617d478-328e-4e44-aaff-445d182b34a4\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596934,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c617d478-328e-4e44-aaff-445d182b34a4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5.68547797203064</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c","operationData":{"accountIdDebit":2885,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c\", \"accountIdDebit\": 2885, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3596936,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5.71822714805603</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3159</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"5b644798-0392-4da6-bf71-8f5ed9c8784f\", \"accountIdDebit\": 3159, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"5b644798-0392-4da6-bf71-8f5ed9c8784f\"}"
+</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>9.549487590789795</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2886</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9827d136-1b89-40f1-856a-73765a7a6d41\", \"accountIdDebit\": 2886, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9827d136-1b89-40f1-856a-73765a7a6d41\"}"
+</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5.402360439300537</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3094</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"563c8ebd-2693-4e50-922d-afc41d2e45cd\", \"accountIdDebit\": 3094, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"563c8ebd-2693-4e50-922d-afc41d2e45cd\"}"
+</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5.582751989364624</v>
       </c>
     </row>
   </sheetData>

--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -467,263 +467,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10656</v>
+        <v>223</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"14ff95be-12b8-48df-be8f-c676987fa6d9","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.21","amountDebitTotal":"0.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"60214b44-8d34-43d7-9f95-c786154e195b","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"14ff95be-12b8-48df-be8f-c676987fa6d9\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"60214b44-8d34-43d7-9f95-c786154e195b\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596905,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597009,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"14ff95be-12b8-48df-be8f-c676987fa6d9\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"60214b44-8d34-43d7-9f95-c786154e195b\"}"
 </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.535039663314819</v>
+        <v>1.882993936538696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10655</v>
+        <v>3587</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5d8b930e-31e5-42d8-a3bb-d219796124d1","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"18.35","amountDebitTotal":"27.8","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5d8b930e-31e5-42d8-a3bb-d219796124d1\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"85c37dac-e894-48ff-9f49-3142aa984bf0\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596904,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5d8b930e-31e5-42d8-a3bb-d219796124d1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"85c37dac-e894-48ff-9f49-3142aa984bf0\"}"
 </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.342062473297119</v>
+        <v>1.803709506988525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10658</v>
+        <v>3517</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ad3b6c9c-2562-4091-ae36-682b4c6361a0","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.18","amountDebitTotal":"0.27","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ad3b6c9c-2562-4091-ae36-682b4c6361a0\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"8b4db0c3-1b26-4cdb-b3a1-1430eb1a7fae\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596906,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ad3b6c9c-2562-4091-ae36-682b4c6361a0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8b4db0c3-1b26-4cdb-b3a1-1430eb1a7fae\"}"
 </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.59605073928833</v>
+        <v>1.582672834396362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10615</v>
+        <v>186</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"bd2c5813-9ad7-4d2d-bf58-f90c1729325a","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"bd2c5813-9ad7-4d2d-bf58-f90c1729325a\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"797add96-318a-423b-a5b9-f4bf6ae89cab\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596901,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"bd2c5813-9ad7-4d2d-bf58-f90c1729325a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"797add96-318a-423b-a5b9-f4bf6ae89cab\"}"
 </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.252554655075073</v>
+        <v>1.44731068611145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10390</v>
+        <v>10954</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"6d97c96f-8873-469b-9258-6ae3fcf68ac9","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6d97c96f-8873-469b-9258-6ae3fcf68ac9\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596902,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597010,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6d97c96f-8873-469b-9258-6ae3fcf68ac9\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13\"}"
 </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.244894742965698</v>
+        <v>1.29425311088562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10653</v>
+        <v>175</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"dbc5d381-c41c-4200-a0a1-6d3aa5abd4e2\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596907,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7509eb19-4782-4dd4-bbcb-e25fa5e6f83a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"dbc5d381-c41c-4200-a0a1-6d3aa5abd4e2\"}"
 </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.659701824188232</v>
+        <v>1.814428567886353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10654</v>
+        <v>250</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ec743e84-630c-47af-b0ab-577100c32449","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"114.29","amountDebitTotal":"173.15","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"22d779d9-333b-4d09-83ce-c1474e015ffb","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ec743e84-630c-47af-b0ab-577100c32449\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"22d779d9-333b-4d09-83ce-c1474e015ffb\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596908,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597011,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ec743e84-630c-47af-b0ab-577100c32449\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"22d779d9-333b-4d09-83ce-c1474e015ffb\"}"
 </t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.73288369178772</v>
+        <v>1.351374864578247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"faeb599f-dc9e-47b4-be62-b9d5dd9f186d","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"85.71","amountDebitTotal":"725.71","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"faeb599f-dc9e-47b4-be62-b9d5dd9f186d\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596903,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597012,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"13d35fb8-d556-4c8a-93f6-dcc9c8178b6d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"faeb599f-dc9e-47b4-be62-b9d5dd9f186d\"}"
 </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.306056499481201</v>
+        <v>1.407406330108643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3587</v>
+        <v>8641</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"95ad2d66-3f41-4e63-8e75-6468e34f2a29\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"67906598-d52c-424d-b3fd-93cc4f9a9daf\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -745,209 +745,209 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"95ad2d66-3f41-4e63-8e75-6468e34f2a29\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"67906598-d52c-424d-b3fd-93cc4f9a9daf\"}"
 </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.622813701629639</v>
+        <v>1.350282907485962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3517</v>
+        <v>3509</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"26a5da07-87de-480d-8eb4-71197b0b8c4d","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"33211bc9-8430-40c6-a80f-af5f2cd1f6ba\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"26a5da07-87de-480d-8eb4-71197b0b8c4d\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597013,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"33211bc9-8430-40c6-a80f-af5f2cd1f6ba\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"26a5da07-87de-480d-8eb4-71197b0b8c4d\"}"
 </t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.934513330459595</v>
+        <v>1.601285696029663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>186</v>
+        <v>2769</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"bfea1479-2eb8-470f-b2bf-658cf5208b14","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a8b41622-12c4-4fa8-8b8d-da366235b059\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"bfea1479-2eb8-470f-b2bf-658cf5208b14\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597014,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a8b41622-12c4-4fa8-8b8d-da366235b059\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"bfea1479-2eb8-470f-b2bf-658cf5208b14\"}"
 </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.65089750289917</v>
+        <v>1.771726846694946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10954</v>
+        <v>185</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3633ad14-f49c-43ce-8b35-ebc9876d9239","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3633ad14-f49c-43ce-8b35-ebc9876d9239\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4d228f3b-838d-4810-ba5f-150bf5e80df0\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596911,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3633ad14-f49c-43ce-8b35-ebc9876d9239\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4d228f3b-838d-4810-ba5f-150bf5e80df0\"}"
 </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.241243839263916</v>
+        <v>1.42876148223877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"13.76","amountDebitTotal":"116.51","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1e292083-be70-4b24-bac9-b1a48924a515\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597015,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1e292083-be70-4b24-bac9-b1a48924a515\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9\"}"
 </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.046047687530518</v>
+        <v>2.186890602111816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"182faa92-50bd-4141-88cf-847fc8d89873","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.13","amountDebitTotal":"1.11","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"182faa92-50bd-4141-88cf-847fc8d89873\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596910,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597016,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"182faa92-50bd-4141-88cf-847fc8d89873\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e\"}"
 </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.937078237533569</v>
+        <v>1.685214281082153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>172</v>
+        <v>11049</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"285.71","amountDebitTotal":"344.57","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f46daeb0-8677-45f4-8c53-ece75d966a2c","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f46daeb0-8677-45f4-8c53-ece75d966a2c\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596909,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597017,"txnCode":"CARD_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e61e797c-fdaa-4b28-8df8-b1ca1ee8f37e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f46daeb0-8677-45f4-8c53-ece75d966a2c\"}"
 </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.906064510345459</v>
+        <v>1.492952585220337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8641</v>
+        <v>3586</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"11e25fbb-1f36-4a55-ac8a-8f1f0c2cd426\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f7eb09c3-bc75-427c-af2b-965326947217\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -969,364 +969,364 @@
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"11e25fbb-1f36-4a55-ac8a-8f1f0c2cd426\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f7eb09c3-bc75-427c-af2b-965326947217\"}"
 </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.813300132751465</v>
+        <v>1.345275402069092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3509</v>
+        <v>238504</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"62078789-8322-45be-a2a5-c5bd0110a419","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"62078789-8322-45be-a2a5-c5bd0110a419\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"73afde3d-7454-4753-85e1-347b16d6ddb1\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596912,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"62078789-8322-45be-a2a5-c5bd0110a419\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"73afde3d-7454-4753-85e1-347b16d6ddb1\"}"
 </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.948916912078857</v>
+        <v>3.805521249771118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2769</v>
+        <v>247805</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"cc20d89f-8f90-4158-9357-288d51c87719","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"cc20d89f-8f90-4158-9357-288d51c87719\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1bbf96a3-149f-481a-851e-29b7abb3079c\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596913,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"cc20d89f-8f90-4158-9357-288d51c87719\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1bbf96a3-149f-481a-851e-29b7abb3079c\"}"
 </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.536776065826416</v>
+        <v>2.287962913513184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>185</v>
+        <v>2791</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"1d61b013-fd9c-45b2-be0f-2bf856c6bb47","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7f6c647b-1a7d-4cbd-ba71-8e56b4ce6d88\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1d61b013-fd9c-45b2-be0f-2bf856c6bb47\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597018,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7f6c647b-1a7d-4cbd-ba71-8e56b4ce6d88\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1d61b013-fd9c-45b2-be0f-2bf856c6bb47\"}"
 </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.52910041809082</v>
+        <v>1.192195892333984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"48b92ac1-ad9a-4ff8-a949-0299e11b6410","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"45.87","amountDebitTotal":"55.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"c4df3f54-b4f2-42d9-92c6-49fce19d822d","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.16","amountDebitTotal":"1.33","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"48b92ac1-ad9a-4ff8-a949-0299e11b6410\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c4df3f54-b4f2-42d9-92c6-49fce19d822d\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596916,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597019,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"48b92ac1-ad9a-4ff8-a949-0299e11b6410\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c4df3f54-b4f2-42d9-92c6-49fce19d822d\"}"
 </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.314439296722412</v>
+        <v>1.473547458648682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>237</v>
+        <v>10656</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"44bf8711-7c5d-466e-9000-43dac782daa2","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.44","amountDebitTotal":"0.53","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.21","amountDebitTotal":"1.38","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"44bf8711-7c5d-466e-9000-43dac782daa2\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596915,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597020,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"44bf8711-7c5d-466e-9000-43dac782daa2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3\"}"
 </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.947421073913574</v>
+        <v>1.297715902328491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11049</v>
+        <v>10655</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"723a3a68-f457-4287-9db6-44c29ea394c0","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"9a94fec9-59c4-400b-9c66-3ae1b4a3574a","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"18.35","amountDebitTotal":"121.1","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"723a3a68-f457-4287-9db6-44c29ea394c0\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9a94fec9-59c4-400b-9c66-3ae1b4a3574a\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596914,"txnCode":"CARD_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597021,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"723a3a68-f457-4287-9db6-44c29ea394c0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9a94fec9-59c4-400b-9c66-3ae1b4a3574a\"}"
 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.88640832901001</v>
+        <v>1.56496787071228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3586</v>
+        <v>10658</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"b7178008-1d09-4297-9f77-3ecbfcc6a6de","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.18","amountDebitTotal":"1.16","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"946bea6e-8ce9-4afe-8e4f-0110031d7a91\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b7178008-1d09-4297-9f77-3ecbfcc6a6de\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597022,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"946bea6e-8ce9-4afe-8e4f-0110031d7a91\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b7178008-1d09-4297-9f77-3ecbfcc6a6de\"}"
 </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9.377859592437744</v>
+        <v>1.19782543182373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>238504</v>
+        <v>10615</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a71a6937-909e-439e-9b2e-8e911a9ae9d2","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"19faf96a-2b25-4204-be50-078f0ec17a01\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a71a6937-909e-439e-9b2e-8e911a9ae9d2\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597023,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"19faf96a-2b25-4204-be50-078f0ec17a01\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a71a6937-909e-439e-9b2e-8e911a9ae9d2\"}"
 </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7.333499908447266</v>
+        <v>1.442341089248657</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>247805</v>
+        <v>10390</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"13867235-6551-4a10-a4de-0f2e308e1265","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a5d3e0fa-bbc5-40f2-a396-44318aa395c7\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"13867235-6551-4a10-a4de-0f2e308e1265\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597024,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a5d3e0fa-bbc5-40f2-a396-44318aa395c7\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"13867235-6551-4a10-a4de-0f2e308e1265\"}"
 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.528303146362305</v>
+        <v>1.387647151947021</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2791</v>
+        <v>10653</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"58d21952-d654-4db5-b58e-19849abcc267","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"65944bf8-ca7a-4382-b0aa-85655f928d46","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"58d21952-d654-4db5-b58e-19849abcc267\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"65944bf8-ca7a-4382-b0aa-85655f928d46\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596918,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597025,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"58d21952-d654-4db5-b58e-19849abcc267\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"65944bf8-ca7a-4382-b0aa-85655f928d46\"}"
 </t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.227005243301392</v>
+        <v>1.139541864395142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>209</v>
+        <v>10654</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9dde777d-d8a4-4f17-8282-de635a716e3a","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"15269549-944f-4deb-89ec-f798bf7785f1","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"114.29","amountDebitTotal":"754.29","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9dde777d-d8a4-4f17-8282-de635a716e3a\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"15269549-944f-4deb-89ec-f798bf7785f1\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596917,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597026,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9dde777d-d8a4-4f17-8282-de635a716e3a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"15269549-944f-4deb-89ec-f798bf7785f1\"}"
 </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.896492719650269</v>
+        <v>1.116572618484497</v>
       </c>
     </row>
     <row r="29">
@@ -1335,30 +1335,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"af38cd65-4122-429e-a117-56d8d727bb5f","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"af38cd65-4122-429e-a117-56d8d727bb5f\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1e0ca0db-cf85-4cf4-b723-bebbed6bf9ef\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596919,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"af38cd65-4122-429e-a117-56d8d727bb5f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1e0ca0db-cf85-4cf4-b723-bebbed6bf9ef\"}"
 </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.622198820114136</v>
+        <v>1.271190881729126</v>
       </c>
     </row>
     <row r="30">
@@ -1367,13 +1367,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"aaf16a9f-addf-445c-8ce3-abd4400fb73d\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"0a1619b8-f78d-4fe7-a124-d147ee126d13\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1385,59 +1385,59 @@
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"aaf16a9f-addf-445c-8ce3-abd4400fb73d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0a1619b8-f78d-4fe7-a124-d147ee126d13\"}"
 </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.59976053237915</v>
+        <v>1.042553424835205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10996</v>
+        <v>8731</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"2496dba7-3337-4689-af99-0339944a62c6","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2496dba7-3337-4689-af99-0339944a62c6\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1456bd6b-b221-41d6-b2b8-5499e23ba521\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596920,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2496dba7-3337-4689-af99-0339944a62c6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1456bd6b-b221-41d6-b2b8-5499e23ba521\"}"
 </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.638120174407959</v>
+        <v>1.296459674835205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10995</v>
+        <v>8729</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"26386d13-3192-451d-841d-9af244450428\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1f5eb921-56f1-4652-a43f-4e38b3583767\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1449,401 +1449,401 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"26386d13-3192-451d-841d-9af244450428\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1f5eb921-56f1-4652-a43f-4e38b3583767\"}"
 </t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.536115407943726</v>
+        <v>1.060952425003052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10656</v>
+        <v>8730</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"355e8fa4-bfcd-46a1-af6e-c9360416eb57","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.21","amountDebitTotal":"0.32","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"355e8fa4-bfcd-46a1-af6e-c9360416eb57\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"32039f50-c7b9-4d7d-89f0-c16b88d721da\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596923,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"355e8fa4-bfcd-46a1-af6e-c9360416eb57\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"32039f50-c7b9-4d7d-89f0-c16b88d721da\"}"
 </t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7.484938621520996</v>
+        <v>1.164856433868408</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10655</v>
+        <v>8728</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"9.45","amountCreditTotal":"0.12","exchangeRate":"78","exchangeRateCcy":"RUB","commission":"18.35","amountDebitTotal":"27.8","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"62ba681f-5a28-4225-a4bc-9705153fe16e\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596921,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6d51f79d-c9a3-4c33-a538-6dfcf5340f9c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"62ba681f-5a28-4225-a4bc-9705153fe16e\"}"
 </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6.12159276008606</v>
+        <v>1.00115966796875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10658</v>
+        <v>8727</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.09","amountCreditTotal":"0.12","exchangeRate":"1.34","exchangeRateCcy":"USD","commission":"0.18","amountDebitTotal":"0.27","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7df78ec3-7075-4045-bdee-d26aa15b7909\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596922,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a81d5e4a-d9ec-4aa0-8adb-d93d1091d8ca\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7df78ec3-7075-4045-bdee-d26aa15b7909\"}"
 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.730122566223145</v>
+        <v>1.391639232635498</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10615</v>
+        <v>10656</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9fcffcad-db8b-4e0a-841a-4c422bd5c830","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"b778cffa-d444-4e37-acff-830c24ffed31","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.21","amountDebitTotal":"1.38","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9fcffcad-db8b-4e0a-841a-4c422bd5c830\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b778cffa-d444-4e37-acff-830c24ffed31\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596924,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597027,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9fcffcad-db8b-4e0a-841a-4c422bd5c830\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b778cffa-d444-4e37-acff-830c24ffed31\"}"
 </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7.432476043701172</v>
+        <v>1.099503517150879</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10390</v>
+        <v>10655</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"338e9378-f032-4904-899a-80dbf426be3d","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"20","amountDebitTotal":"30.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"18.35","amountDebitTotal":"121.1","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"338e9378-f032-4904-899a-80dbf426be3d\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596925,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597028,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"338e9378-f032-4904-899a-80dbf426be3d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8\"}"
 </t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.731605529785156</v>
+        <v>1.122867107391357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10653</v>
+        <v>10658</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"efa4f320-f05d-4140-ab33-a98b2a387d0a","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.18","amountDebitTotal":"1.16","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"efa4f320-f05d-4140-ab33-a98b2a387d0a\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596927,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597029,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"efa4f320-f05d-4140-ab33-a98b2a387d0a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6\"}"
 </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7.746731996536255</v>
+        <v>2.342841148376465</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10654</v>
+        <v>10615</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"58.86","amountCreditTotal":"0.13","exchangeRate":"445","exchangeRateCcy":"KZT","commission":"114.29","amountDebitTotal":"173.15","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3589a8aa-aace-4673-a76b-58694bcdcf30","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3589a8aa-aace-4673-a76b-58694bcdcf30\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596926,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597030,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9f36b5dd-c4f2-4393-8c58-a7bb134e86f4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3589a8aa-aace-4673-a76b-58694bcdcf30\"}"
 </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.151475191116333</v>
+        <v>1.09459114074707</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8731</v>
+        <v>10390</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"4634b7ee-0a42-4ff2-9594-2f9c35589c3f","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"abd06906-3c89-4914-82be-04a71c1e7ebf\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"4634b7ee-0a42-4ff2-9594-2f9c35589c3f\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597031,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"abd06906-3c89-4914-82be-04a71c1e7ebf\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4634b7ee-0a42-4ff2-9594-2f9c35589c3f\"}"
 </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7.481932163238525</v>
+        <v>1.584699153900146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8729</v>
+        <v>10653</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"d05e1a73-4862-4864-8968-b0a1020e4ddb","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8c18f659-c920-4f63-990f-63b109ff4de3\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"d05e1a73-4862-4864-8968-b0a1020e4ddb\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597032,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8c18f659-c920-4f63-990f-63b109ff4de3\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d05e1a73-4862-4864-8968-b0a1020e4ddb\"}"
 </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.65263295173645</v>
+        <v>1.317092418670654</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8730</v>
+        <v>10654</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"eb9e2c28-8edd-4389-bd05-828d148c1b4d","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"114.29","amountDebitTotal":"754.29","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1176c693-09f5-4485-ad2c-e552d96b94ea\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"eb9e2c28-8edd-4389-bd05-828d148c1b4d\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597033,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1176c693-09f5-4485-ad2c-e552d96b94ea\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"eb9e2c28-8edd-4389-bd05-828d148c1b4d\"}"
 </t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.303071022033691</v>
+        <v>1.593948125839233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8728</v>
+        <v>8714</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c","operationData":{"accountIdDebit":8714,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1b1c6420-fdf9-4954-93c5-ce1e38905be8\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597034,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1b1c6420-fdf9-4954-93c5-ce1e38905be8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c\"}"
 </t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.456175804138184</v>
+        <v>1.652743816375732</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8727</v>
+        <v>10707</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"757c8b04-3360-4870-a8e7-aa6bd8e965fe","operationData":{"accountIdDebit":10707,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"67917b5d-4b13-4d5c-8291-949660b26642\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"757c8b04-3360-4870-a8e7-aa6bd8e965fe\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597035,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"67917b5d-4b13-4d5c-8291-949660b26642\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"757c8b04-3360-4870-a8e7-aa6bd8e965fe\"}"
 </t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.291803598403931</v>
+        <v>2.111570596694946</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8714</v>
+        <v>8716</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"48f089d4-bac2-4924-b001-79800f8adb88\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"9f1f0c59-1f19-45d7-ab26-e4879a51f6af\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1865,17 +1865,17 @@
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"48f089d4-bac2-4924-b001-79800f8adb88\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9f1f0c59-1f19-45d7-ab26-e4879a51f6af\"}"
 </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7.288801908493042</v>
+        <v>1.068884134292603</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10707</v>
+        <v>10696</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"cfe2db65-8525-40e6-922c-546044468588\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"7388474d-f109-4046-b314-08e7b93c6383\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1897,49 +1897,49 @@
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"cfe2db65-8525-40e6-922c-546044468588\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"7388474d-f109-4046-b314-08e7b93c6383\"}"
 </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.921650886535645</v>
+        <v>12.7491512298584</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8716</v>
+        <v>8710</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a55f733c-aca5-4067-9c72-10138bd5b992","operationData":{"accountIdDebit":8716,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"59e3da60-fb47-415f-8aae-76626e21fd0c","operationData":{"accountIdDebit":8710,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a55f733c-aca5-4067-9c72-10138bd5b992\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"59e3da60-fb47-415f-8aae-76626e21fd0c\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596928,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597036,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a55f733c-aca5-4067-9c72-10138bd5b992\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"59e3da60-fb47-415f-8aae-76626e21fd0c\"}"
 </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.734614133834839</v>
+        <v>1.552814722061157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10696</v>
+        <v>10295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a275db05-13be-4048-9bb2-a6ab68fcd647\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"537c6e2c-915e-4141-953f-9bd3ea1720fc\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1961,27 +1961,27 @@
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a275db05-13be-4048-9bb2-a6ab68fcd647\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"537c6e2c-915e-4141-953f-9bd3ea1720fc\"}"
 </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.633624315261841</v>
+        <v>1.856210947036743</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8710</v>
+        <v>8724</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3b63fc71-8533-4166-aec3-04de90972b17\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"72c279a1-54f7-45ab-ac76-d84d0c261cdd\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -1993,17 +1993,17 @@
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3b63fc71-8533-4166-aec3-04de90972b17\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"72c279a1-54f7-45ab-ac76-d84d0c261cdd\"}"
 </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6.054328680038452</v>
+        <v>1.085460186004639</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10295</v>
+        <v>8718</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f507c8e8-125f-48d5-99d5-c5728a71dc24\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1c18605f-eb3a-4a51-976e-b7dceaebf278\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2025,27 +2025,27 @@
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f507c8e8-125f-48d5-99d5-c5728a71dc24\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1c18605f-eb3a-4a51-976e-b7dceaebf278\"}"
 </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.852547645568848</v>
+        <v>1.122260332107544</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8724</v>
+        <v>8717</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2a7c99f0-1531-40df-8ca3-bd60ad5c33a2\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"6fae4663-6440-4cbe-9807-077fc70f986d\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2057,27 +2057,27 @@
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2a7c99f0-1531-40df-8ca3-bd60ad5c33a2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6fae4663-6440-4cbe-9807-077fc70f986d\"}"
 </t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.289485454559326</v>
+        <v>1.130733251571655</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8718</v>
+        <v>8723</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"99e0db3d-fe34-4c02-b41d-7839177db6af\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2adedb50-a61f-4edf-a029-473511766005\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2089,27 +2089,27 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"99e0db3d-fe34-4c02-b41d-7839177db6af\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2adedb50-a61f-4edf-a029-473511766005\"}"
 </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.565221786499023</v>
+        <v>1.30908465385437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8717</v>
+        <v>8720</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9d9df97e-c243-4ae5-b36b-4062b7e8db6a\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b5d3ddb8-04ba-4e36-bc04-5a4ba8e71aae\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2121,27 +2121,27 @@
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9d9df97e-c243-4ae5-b36b-4062b7e8db6a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b5d3ddb8-04ba-4e36-bc04-5a4ba8e71aae\"}"
 </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8.694060087203979</v>
+        <v>1.723325490951538</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8723</v>
+        <v>8715</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f110f417-d6c8-41bc-a1dd-8e959e4e272e\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"00bd5985-0edc-4b6f-b4c4-ac7dce698a80\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2153,27 +2153,27 @@
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f110f417-d6c8-41bc-a1dd-8e959e4e272e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"00bd5985-0edc-4b6f-b4c4-ac7dce698a80\"}"
 </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5.577007055282593</v>
+        <v>1.096839666366577</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8720</v>
+        <v>8722</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"65cbab3c-bc3f-4e57-8b7e-2be8293e4a02\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"ab239afe-8139-4559-bcca-853d3af1224d\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2185,209 +2185,209 @@
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"65cbab3c-bc3f-4e57-8b7e-2be8293e4a02\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ab239afe-8139-4559-bcca-853d3af1224d\"}"
 </t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6.964978694915771</v>
+        <v>1.317227125167847</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8715</v>
+        <v>8711</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d0e33143-392e-441f-86c0-b267e528f13e","operationData":{"accountIdDebit":8715,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.22","amountDebitTotal":"0.34","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d0e33143-392e-441f-86c0-b267e528f13e\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"878dd1e1-de96-43bb-a2fa-c2f6d4ef3933\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596930,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d0e33143-392e-441f-86c0-b267e528f13e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"878dd1e1-de96-43bb-a2fa-c2f6d4ef3933\"}"
 </t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7.325019359588623</v>
+        <v>1.000574827194214</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8722</v>
+        <v>11136</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"86852575-374f-4772-a921-da0c7d87260c\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597037,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"86852575-374f-4772-a921-da0c7d87260c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f\"}"
 </t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.948356151580811</v>
+        <v>1.533515214920044</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8711</v>
+        <v>11137</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a48241e8-fd16-42e1-b6f8-9f478eee367e","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.16","amountDebitTotal":"1.33","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"00e8b3fd-6071-460d-af69-1c73dbad9921\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a48241e8-fd16-42e1-b6f8-9f478eee367e\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597038,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"00e8b3fd-6071-460d-af69-1c73dbad9921\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a48241e8-fd16-42e1-b6f8-9f478eee367e\"}"
 </t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.779223680496216</v>
+        <v>1.456939220428467</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11136</v>
+        <v>11131</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"577a0388-0600-4889-805d-5142fa8a857f","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"577a0388-0600-4889-805d-5142fa8a857f\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596931,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597039,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"577a0388-0600-4889-805d-5142fa8a857f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae\"}"
 </t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7.191490411758423</v>
+        <v>1.194530248641968</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11137</v>
+        <v>3007</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"28b7d04d-5d7b-430e-932c-9a281361c5f4","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.11","amountCreditTotal":"0.12","exchangeRate":"1.122","exchangeRateCcy":"USD","commission":"0.52","amountDebitTotal":"0.63","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"28b7d04d-5d7b-430e-932c-9a281361c5f4\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"05135c3f-91a5-4061-95fb-5300bf669402\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596932,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"28b7d04d-5d7b-430e-932c-9a281361c5f4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"05135c3f-91a5-4061-95fb-5300bf669402\"}"
 </t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8.711952924728394</v>
+        <v>1.518256664276123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11131</v>
+        <v>3201</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ecba1cda-1a99-4f8a-9260-11f526c3166d","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ecba1cda-1a99-4f8a-9260-11f526c3166d\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"925ce62f-b0fb-4c0f-8b2e-3aaaed3b21fb\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596929,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ecba1cda-1a99-4f8a-9260-11f526c3166d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"925ce62f-b0fb-4c0f-8b2e-3aaaed3b21fb\"}"
 </t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.567610502243042</v>
+        <v>1.124268531799316</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3007</v>
+        <v>2847</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"97f160af-f30c-4957-a9c3-46dc58c22d8b\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"c7e672dd-86f6-4ba5-8b5a-ccce05263ab1\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2409,49 +2409,49 @@
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"97f160af-f30c-4957-a9c3-46dc58c22d8b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c7e672dd-86f6-4ba5-8b5a-ccce05263ab1\"}"
 </t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5.448084354400635</v>
+        <v>1.551238298416138</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"eb627bc2-552d-416d-833c-12b1e74cc0e1","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"09ff44a5-1c5e-4d9f-bba7-6699cf1a24b8\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"eb627bc2-552d-416d-833c-12b1e74cc0e1\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597040,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"09ff44a5-1c5e-4d9f-bba7-6699cf1a24b8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"eb627bc2-552d-416d-833c-12b1e74cc0e1\"}"
 </t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5.471133947372437</v>
+        <v>1.533055782318115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2847</v>
+        <v>3078</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c8c7ef8b-016b-4f2d-bab7-eb3aac1b5cd8\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"e43b5b13-ec1a-4301-ac7e-ef0d004a9ed2\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2473,140 +2473,140 @@
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c8c7ef8b-016b-4f2d-bab7-eb3aac1b5cd8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e43b5b13-ec1a-4301-ac7e-ef0d004a9ed2\"}"
 </t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6.065468549728394</v>
+        <v>1.537024736404419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3200</v>
+        <v>3133</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e3016b5d-4fdf-49ec-bcf4-31573d3b35da","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"26654294-a5ad-43e9-aa30-37a6853e9f06","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e3016b5d-4fdf-49ec-bcf4-31573d3b35da\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"26654294-a5ad-43e9-aa30-37a6853e9f06\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596935,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597041,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e3016b5d-4fdf-49ec-bcf4-31573d3b35da\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"26654294-a5ad-43e9-aa30-37a6853e9f06\"}"
 </t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7.33622407913208</v>
+        <v>1.014204263687134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3078</v>
+        <v>3006</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"a310370f-7f80-4892-aaa4-4816baa6e871","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1367dbb9-7c6b-4401-89c8-66da3eb23d8d\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"a310370f-7f80-4892-aaa4-4816baa6e871\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597042,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1367dbb9-7c6b-4401-89c8-66da3eb23d8d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"a310370f-7f80-4892-aaa4-4816baa6e871\"}"
 </t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6.927973985671997</v>
+        <v>1.13123631477356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3133</v>
+        <v>10996</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"24c631fd-865a-4ec7-9888-ec15613f9c74","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"24c631fd-865a-4ec7-9888-ec15613f9c74\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"b3743dca-7722-4d10-9907-5a77adfcf61e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596933,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"24c631fd-865a-4ec7-9888-ec15613f9c74\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b3743dca-7722-4d10-9907-5a77adfcf61e\"}"
 </t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5.894896984100342</v>
+        <v>1.567477941513062</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3006</v>
+        <v>10995</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c617d478-328e-4e44-aaff-445d182b34a4","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.12","amountCreditTotal":"0.12","exchangeRate":"","exchangeRateCcy":"","commission":"0.56","amountDebitTotal":"0.68","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c617d478-328e-4e44-aaff-445d182b34a4\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2c2d1c4c-d3e8-4670-b95c-ec5abe9c28dc\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596934,"txnCode":"CURRENT_CARD_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c617d478-328e-4e44-aaff-445d182b34a4\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2c2d1c4c-d3e8-4670-b95c-ec5abe9c28dc\"}"
 </t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5.68547797203064</v>
+        <v>1.081562757492065</v>
       </c>
     </row>
     <row r="69">
@@ -2615,30 +2615,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c","operationData":{"accountIdDebit":2885,"accountCreditPropValue":"1280016055062667","accountCreditPropType":"ACCOUNT_NO","amountDebit":"10.3","amountCreditTotal":"0.12","exchangeRate":"89.2","exchangeRateCcy":"KGS","commission":"50","amountDebitTotal":"60.3","creditCustomerName":"L*****l Q****n K*********T","paymentPurpose":"Payment for services","accountCreditCcy":"USD","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"1993569a-8fd5-41a2-a6d8-5e1976b59f49","operationData":{"accountIdDebit":2885,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c\", \"accountIdDebit\": 2885, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"1993569a-8fd5-41a2-a6d8-5e1976b59f49\", \"accountIdDebit\": 2885, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3596936,"txnCode":"CURRENT_CARD_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3597043,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b1d1aeb3-94d7-4d6e-b81b-33b8512c9b2c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1993569a-8fd5-41a2-a6d8-5e1976b59f49\"}"
 </t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.71822714805603</v>
+        <v>1.875466823577881</v>
       </c>
     </row>
     <row r="70">
@@ -2653,7 +2653,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5b644798-0392-4da6-bf71-8f5ed9c8784f\", \"accountIdDebit\": 3159, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"793e1185-c967-481e-9ac2-8abffca6eb15\", \"accountIdDebit\": 3159, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2665,12 +2665,12 @@
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5b644798-0392-4da6-bf71-8f5ed9c8784f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"793e1185-c967-481e-9ac2-8abffca6eb15\"}"
 </t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9.549487590789795</v>
+        <v>1.4367835521698</v>
       </c>
     </row>
     <row r="71">
@@ -2685,7 +2685,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9827d136-1b89-40f1-856a-73765a7a6d41\", \"accountIdDebit\": 2886, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"3dcac2d4-a6f5-4d06-9765-85c5bd408db5\", \"accountIdDebit\": 2886, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2697,12 +2697,12 @@
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9827d136-1b89-40f1-856a-73765a7a6d41\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3dcac2d4-a6f5-4d06-9765-85c5bd408db5\"}"
 </t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5.402360439300537</v>
+        <v>0.9945070743560791</v>
       </c>
     </row>
     <row r="72">
@@ -2717,7 +2717,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"563c8ebd-2693-4e50-922d-afc41d2e45cd\", \"accountIdDebit\": 3094, \"accountCreditPropValue\": \"255\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"10.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"04\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"255\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+data: "{\"operationId\": \"2df89569-e1c0-4ea9-b093-7507f5f426ea\", \"accountIdDebit\": 3094, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
 </t>
         </is>
       </c>
@@ -2729,12 +2729,12 @@
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"563c8ebd-2693-4e50-922d-afc41d2e45cd\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2df89569-e1c0-4ea9-b093-7507f5f426ea\"}"
 </t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.582751989364624</v>
+        <v>1.211994647979736</v>
       </c>
     </row>
   </sheetData>

--- a/grpc_tests/test_results.xlsx
+++ b/grpc_tests/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,81 +467,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>223</v>
+        <v>2783</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"60214b44-8d34-43d7-9f95-c786154e195b","operationData":{"accountIdDebit":223,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"60214b44-8d34-43d7-9f95-c786154e195b\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"0fea58bc-898b-49e3-abc9-79aa9f975fd6\", \"accountIdDebit\": 2783, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597009,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"60214b44-8d34-43d7-9f95-c786154e195b\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0fea58bc-898b-49e3-abc9-79aa9f975fd6\"}"
 </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.882993936538696</v>
+        <v>5.340122699737549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3587</v>
+        <v>2774</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"eab387a3-9f32-4946-ac18-4d2107071c57","operationData":{"accountIdDebit":2774,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"85c37dac-e894-48ff-9f49-3142aa984bf0\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"eab387a3-9f32-4946-ac18-4d2107071c57\", \"accountIdDebit\": 2774, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604931,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"85c37dac-e894-48ff-9f49-3142aa984bf0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"eab387a3-9f32-4946-ac18-4d2107071c57\"}"
 </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.803709506988525</v>
+        <v>5.605221509933472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3517</v>
+        <v>10902</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8b4db0c3-1b26-4cdb-b3a1-1430eb1a7fae\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"aff1a266-c074-4da5-b9b9-41da26ef0303\", \"accountIdDebit\": 10902, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -553,91 +553,91 @@
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8b4db0c3-1b26-4cdb-b3a1-1430eb1a7fae\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"aff1a266-c074-4da5-b9b9-41da26ef0303\"}"
 </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.582672834396362</v>
+        <v>5.961825132369995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>186</v>
+        <v>10903</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"6040825f-a3ae-4ad9-ab75-112de9f06ae0","operationData":{"accountIdDebit":10903,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"797add96-318a-423b-a5b9-f4bf6ae89cab\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"6040825f-a3ae-4ad9-ab75-112de9f06ae0\", \"accountIdDebit\": 10903, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604930,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"797add96-318a-423b-a5b9-f4bf6ae89cab\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6040825f-a3ae-4ad9-ab75-112de9f06ae0\"}"
 </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44731068611145</v>
+        <v>5.539219379425049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10954</v>
+        <v>8731</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13","operationData":{"accountIdDebit":10954,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"ab1d7ea8-b3e7-4267-8adb-0c863aa6af6a\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597010,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e78adf66-284b-4a6f-97e5-ea2cb0a0dc13\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ab1d7ea8-b3e7-4267-8adb-0c863aa6af6a\"}"
 </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29425311088562</v>
+        <v>5.605220317840576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>175</v>
+        <v>8729</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"dbc5d381-c41c-4200-a0a1-6d3aa5abd4e2\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"e2043dd4-a013-4d6a-83bc-3ae56dcac328\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -649,91 +649,91 @@
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"dbc5d381-c41c-4200-a0a1-6d3aa5abd4e2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e2043dd4-a013-4d6a-83bc-3ae56dcac328\"}"
 </t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.814428567886353</v>
+        <v>5.865729570388794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250</v>
+        <v>8728</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"22d779d9-333b-4d09-83ce-c1474e015ffb","operationData":{"accountIdDebit":250,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"22d779d9-333b-4d09-83ce-c1474e015ffb\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"00aa5169-1d2c-4a38-9a7e-909c3b863f56\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597011,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"22d779d9-333b-4d09-83ce-c1474e015ffb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"00aa5169-1d2c-4a38-9a7e-909c3b863f56\"}"
 </t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.351374864578247</v>
+        <v>5.604220867156982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>172</v>
+        <v>8730</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"faeb599f-dc9e-47b4-be62-b9d5dd9f186d","operationData":{"accountIdDebit":172,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"85.71","amountDebitTotal":"725.71","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"faeb599f-dc9e-47b4-be62-b9d5dd9f186d\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"af6f60ff-12aa-498e-8a0b-398b7bb84828\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597012,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"faeb599f-dc9e-47b4-be62-b9d5dd9f186d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"af6f60ff-12aa-498e-8a0b-398b7bb84828\"}"
 </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.407406330108643</v>
+        <v>5.451959848403931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8641</v>
+        <v>8726</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"67906598-d52c-424d-b3fd-93cc4f9a9daf\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"9efa8356-1353-46e1-af39-407e3461bd40\", \"accountIdDebit\": 8726, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -745,209 +745,209 @@
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"67906598-d52c-424d-b3fd-93cc4f9a9daf\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9efa8356-1353-46e1-af39-407e3461bd40\"}"
 </t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.350282907485962</v>
+        <v>5.348133325576782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3509</v>
+        <v>8727</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"26a5da07-87de-480d-8eb4-71197b0b8c4d","operationData":{"accountIdDebit":3509,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"26a5da07-87de-480d-8eb4-71197b0b8c4d\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2e25284f-0623-4d1b-9bcb-19409815041d\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597013,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"26a5da07-87de-480d-8eb4-71197b0b8c4d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2e25284f-0623-4d1b-9bcb-19409815041d\"}"
 </t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.601285696029663</v>
+        <v>5.331292867660522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2769</v>
+        <v>8070</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"bfea1479-2eb8-470f-b2bf-658cf5208b14","operationData":{"accountIdDebit":2769,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"323a9458-744c-4818-a946-9aaf70506dcc","operationData":{"accountIdDebit":8070,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3270.33","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"25.25","amountDebitTotal":"3025.55","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"bfea1479-2eb8-470f-b2bf-658cf5208b14\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"323a9458-744c-4818-a946-9aaf70506dcc\", \"accountIdDebit\": 8070, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597014,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604933,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"bfea1479-2eb8-470f-b2bf-658cf5208b14\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"323a9458-744c-4818-a946-9aaf70506dcc\"}"
 </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.771726846694946</v>
+        <v>5.41302227973938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>185</v>
+        <v>3103</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_EXCHANGE_AVAILABLE', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"dd28d01c-99d0-44d4-8ec5-0b447ddd42f8","operationData":{"accountIdDebit":3103,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4d228f3b-838d-4810-ba5f-150bf5e80df0\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"dd28d01c-99d0-44d4-8ec5-0b447ddd42f8\", \"accountIdDebit\": 3103, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604932,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4d228f3b-838d-4810-ba5f-150bf5e80df0\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"dd28d01c-99d0-44d4-8ec5-0b447ddd42f8\"}"
 </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42876148223877</v>
+        <v>5.306180953979492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>231</v>
+        <v>2820</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9","operationData":{"accountIdDebit":231,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"13.76","amountDebitTotal":"116.51","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"9baab448-a2de-4781-91f8-8b501b2f669d","operationData":{"accountIdDebit":2820,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"9baab448-a2de-4781-91f8-8b501b2f669d\", \"accountIdDebit\": 2820, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597015,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604934,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c91bba4e-2a06-4a51-9bfe-7bd6618d9be9\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9baab448-a2de-4781-91f8-8b501b2f669d\"}"
 </t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.186890602111816</v>
+        <v>5.398167848587036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>237</v>
+        <v>2897</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e","operationData":{"accountIdDebit":237,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.13","amountDebitTotal":"1.11","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"752e49fa-182c-4fd3-b49a-aa8b86269118\", \"accountIdDebit\": 2897, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597016,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a8e865cb-55eb-4a06-a00e-7cb2c9191c5e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"752e49fa-182c-4fd3-b49a-aa8b86269118\"}"
 </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.685214281082153</v>
+        <v>5.155937194824219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11049</v>
+        <v>11106</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f46daeb0-8677-45f4-8c53-ece75d966a2c","operationData":{"accountIdDebit":11049,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f46daeb0-8677-45f4-8c53-ece75d966a2c\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"ddd06f2e-8a2e-4801-86bf-4abb292ccbf6\", \"accountIdDebit\": 11106, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597017,"txnCode":"CARD_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f46daeb0-8677-45f4-8c53-ece75d966a2c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"ddd06f2e-8a2e-4801-86bf-4abb292ccbf6\"}"
 </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.492952585220337</v>
+        <v>5.330164670944214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3586</v>
+        <v>3299</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f7eb09c3-bc75-427c-af2b-965326947217\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"0a6bab90-3697-4dd4-932b-217412dc6214\", \"accountIdDebit\": 3299, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -969,59 +969,59 @@
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f7eb09c3-bc75-427c-af2b-965326947217\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0a6bab90-3697-4dd4-932b-217412dc6214\"}"
 </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.345275402069092</v>
+        <v>5.330168962478638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>238504</v>
+        <v>3506</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"f8c8f8d6-c10d-4b35-834d-fb6423a68390","operationData":{"accountIdDebit":3506,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"73afde3d-7454-4753-85e1-347b16d6ddb1\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"f8c8f8d6-c10d-4b35-834d-fb6423a68390\", \"accountIdDebit\": 3506, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604935,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"73afde3d-7454-4753-85e1-347b16d6ddb1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f8c8f8d6-c10d-4b35-834d-fb6423a68390\"}"
 </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.805521249771118</v>
+        <v>5.270509719848633</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>247805</v>
+        <v>8071</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1bbf96a3-149f-481a-851e-29b7abb3079c\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"9903e57a-6df2-4b43-ac67-a7d40eee63bd\", \"accountIdDebit\": 8071, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1033,315 +1033,315 @@
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1bbf96a3-149f-481a-851e-29b7abb3079c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9903e57a-6df2-4b43-ac67-a7d40eee63bd\"}"
 </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.287962913513184</v>
+        <v>5.167414665222168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2791</v>
+        <v>2896</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1d61b013-fd9c-45b2-be0f-2bf856c6bb47","operationData":{"accountIdDebit":2791,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1d61b013-fd9c-45b2-be0f-2bf856c6bb47\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"76ebd62d-9457-4d33-940b-e45419b7fd1b\", \"accountIdDebit\": 2896, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597018,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1d61b013-fd9c-45b2-be0f-2bf856c6bb47\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"76ebd62d-9457-4d33-940b-e45419b7fd1b\"}"
 </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.192195892333984</v>
+        <v>5.647403001785278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>209</v>
+        <v>2973</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"c4df3f54-b4f2-42d9-92c6-49fce19d822d","operationData":{"accountIdDebit":209,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.16","amountDebitTotal":"1.33","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c4df3f54-b4f2-42d9-92c6-49fce19d822d\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"55dcaa03-e1e8-4d70-9a43-53f70cd6798c\", \"accountIdDebit\": 2973, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597019,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c4df3f54-b4f2-42d9-92c6-49fce19d822d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"55dcaa03-e1e8-4d70-9a43-53f70cd6798c\"}"
 </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.473547458648682</v>
+        <v>5.443634271621704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10656</v>
+        <v>3178</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.21","amountDebitTotal":"1.38","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2f6eb0d2-4a79-4854-ae51-37bc5b37cd63\", \"accountIdDebit\": 3178, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597020,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"f7b7739f-f295-4a19-ab00-70a1fbb4f2f3\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2f6eb0d2-4a79-4854-ae51-37bc5b37cd63\"}"
 </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.297715902328491</v>
+        <v>5.579696655273438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10655</v>
+        <v>3179</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"9a94fec9-59c4-400b-9c66-3ae1b4a3574a","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"18.35","amountDebitTotal":"121.1","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9a94fec9-59c4-400b-9c66-3ae1b4a3574a\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2f7fe6dd-fb00-41e0-9508-2b7935c6f9bb\", \"accountIdDebit\": 3179, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597021,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9a94fec9-59c4-400b-9c66-3ae1b4a3574a\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2f7fe6dd-fb00-41e0-9508-2b7935c6f9bb\"}"
 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.56496787071228</v>
+        <v>5.548663139343262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10658</v>
+        <v>8069</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"b7178008-1d09-4297-9f77-3ecbfcc6a6de","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.18","amountDebitTotal":"1.16","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b7178008-1d09-4297-9f77-3ecbfcc6a6de\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"5b3b3b3b-1bff-466b-8445-b6de6a5a567b\", \"accountIdDebit\": 8069, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597022,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b7178008-1d09-4297-9f77-3ecbfcc6a6de\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5b3b3b3b-1bff-466b-8445-b6de6a5a567b\"}"
 </t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.19782543182373</v>
+        <v>5.405461549758911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10615</v>
+        <v>8072</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a71a6937-909e-439e-9b2e-8e911a9ae9d2","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"8a07c195-14d1-4e55-afed-44697651086a","operationData":{"accountIdDebit":8072,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"525.05","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"979.6","amountDebitTotal":"3979.9","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a71a6937-909e-439e-9b2e-8e911a9ae9d2\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"8a07c195-14d1-4e55-afed-44697651086a\", \"accountIdDebit\": 8072, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597023,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604937,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a71a6937-909e-439e-9b2e-8e911a9ae9d2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"8a07c195-14d1-4e55-afed-44697651086a\"}"
 </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.442341089248657</v>
+        <v>5.40546178817749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10390</v>
+        <v>10996</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"13867235-6551-4a10-a4de-0f2e308e1265","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"71492ba3-2513-4844-9afe-70c4e675ac44","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"13867235-6551-4a10-a4de-0f2e308e1265\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"71492ba3-2513-4844-9afe-70c4e675ac44\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597024,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604936,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"13867235-6551-4a10-a4de-0f2e308e1265\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"71492ba3-2513-4844-9afe-70c4e675ac44\"}"
 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.387647151947021</v>
+        <v>5.402466535568237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10653</v>
+        <v>10995</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"65944bf8-ca7a-4382-b0aa-85655f928d46","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"65944bf8-ca7a-4382-b0aa-85655f928d46\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2a4cf6e4-a7ce-48d4-a383-a8c7c09f3559\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597025,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"65944bf8-ca7a-4382-b0aa-85655f928d46\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2a4cf6e4-a7ce-48d4-a383-a8c7c09f3559\"}"
 </t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.139541864395142</v>
+        <v>5.351813316345215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10654</v>
+        <v>11136</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"15269549-944f-4deb-89ec-f798bf7785f1","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"114.29","amountDebitTotal":"754.29","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"operationId":"420c4f2a-cd55-4e42-969c-142e2333e1f4","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"15269549-944f-4deb-89ec-f798bf7785f1\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"420c4f2a-cd55-4e42-969c-142e2333e1f4\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597026,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604938,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"15269549-944f-4deb-89ec-f798bf7785f1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"420c4f2a-cd55-4e42-969c-142e2333e1f4\"}"
 </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.116572618484497</v>
+        <v>5.365813255310059</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10996</v>
+        <v>11137</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'MIN_LIMIT_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1e0ca0db-cf85-4cf4-b723-bebbed6bf9ef\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"1b1903b2-26f2-450e-8b04-4f187087986c\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1353,27 +1353,27 @@
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1e0ca0db-cf85-4cf4-b723-bebbed6bf9ef\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"1b1903b2-26f2-450e-8b04-4f187087986c\"}"
 </t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.271190881729126</v>
+        <v>5.557010412216187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10995</v>
+        <v>11131</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'MIN_LIMIT_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"0a1619b8-f78d-4fe7-a124-d147ee126d13\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"e550fe9f-15ec-46b3-877f-b0bf73cb593c\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1385,27 +1385,27 @@
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"0a1619b8-f78d-4fe7-a124-d147ee126d13\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e550fe9f-15ec-46b3-877f-b0bf73cb593c\"}"
 </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.042553424835205</v>
+        <v>6.848085165023804</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8731</v>
+        <v>8714</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1456bd6b-b221-41d6-b2b8-5499e23ba521\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"de80b80f-efd2-451c-a44d-0e5ad46b477f\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1417,27 +1417,27 @@
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1456bd6b-b221-41d6-b2b8-5499e23ba521\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"de80b80f-efd2-451c-a44d-0e5ad46b477f\"}"
 </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.296459674835205</v>
+        <v>6.74306845664978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8729</v>
+        <v>10707</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1f5eb921-56f1-4652-a43f-4e38b3583767\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"eda81202-da97-436d-8d40-a83bb33933e0\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1449,27 +1449,27 @@
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1f5eb921-56f1-4652-a43f-4e38b3583767\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"eda81202-da97-436d-8d40-a83bb33933e0\"}"
 </t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.060952425003052</v>
+        <v>5.473487138748169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8730</v>
+        <v>8716</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"32039f50-c7b9-4d7d-89f0-c16b88d721da\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"c9648e72-1698-4b8f-b846-bfbdcb522202\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1481,27 +1481,27 @@
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"32039f50-c7b9-4d7d-89f0-c16b88d721da\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c9648e72-1698-4b8f-b846-bfbdcb522202\"}"
 </t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.164856433868408</v>
+        <v>6.693036079406738</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8728</v>
+        <v>10696</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"62ba681f-5a28-4225-a4bc-9705153fe16e\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"9d58f701-f6e7-4079-916d-a1831dee78be\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1513,27 +1513,27 @@
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"62ba681f-5a28-4225-a4bc-9705153fe16e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"9d58f701-f6e7-4079-916d-a1831dee78be\"}"
 </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.00115966796875</v>
+        <v>6.570133924484253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8727</v>
+        <v>8710</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7df78ec3-7075-4045-bdee-d26aa15b7909\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"4b66432a-3ad7-4438-910d-ee4b2d27b450\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1545,337 +1545,337 @@
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7df78ec3-7075-4045-bdee-d26aa15b7909\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4b66432a-3ad7-4438-910d-ee4b2d27b450\"}"
 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.391639232635498</v>
+        <v>5.591824293136597</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10656</v>
+        <v>10295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"b778cffa-d444-4e37-acff-830c24ffed31","operationData":{"accountIdDebit":10656,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.21","amountDebitTotal":"1.38","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b778cffa-d444-4e37-acff-830c24ffed31\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"3daefd8a-7c0f-4a00-a031-755d2ec867b0\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597027,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b778cffa-d444-4e37-acff-830c24ffed31\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3daefd8a-7c0f-4a00-a031-755d2ec867b0\"}"
 </t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.099503517150879</v>
+        <v>5.604082822799683</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10655</v>
+        <v>8724</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"102.75","amountCreditTotal":"112","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"18.35","amountDebitTotal":"121.1","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"da1e6ae0-4505-4775-8bd3-0a9513ec8ebd\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597028,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"da1e6ae0-4505-4775-8bd3-0a9513ec8ebd\"}"
 </t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.122867107391357</v>
+        <v>5.584088563919067</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10658</v>
+        <v>8723</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6","operationData":{"accountIdDebit":10658,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"0.98","amountCreditTotal":"111.72","exchangeRate":"114","exchangeRateCcy":"KGS","commission":"0.18","amountDebitTotal":"1.16","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"f887a39d-4ab6-4fd4-8ec5-9bb878decbdc\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597029,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3324f4a2-863b-4dc6-aad6-d1c70bb95ff6\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f887a39d-4ab6-4fd4-8ec5-9bb878decbdc\"}"
 </t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.342841148376465</v>
+        <v>6.095458030700684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10615</v>
+        <v>8717</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"3589a8aa-aace-4673-a76b-58694bcdcf30","operationData":{"accountIdDebit":10615,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3589a8aa-aace-4673-a76b-58694bcdcf30\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"42e44b4b-ef1a-4b58-b94a-022e350ce648\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597030,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3589a8aa-aace-4673-a76b-58694bcdcf30\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"42e44b4b-ef1a-4b58-b94a-022e350ce648\"}"
 </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.09459114074707</v>
+        <v>5.322473526000977</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10390</v>
+        <v>8718</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"4634b7ee-0a42-4ff2-9594-2f9c35589c3f","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"4634b7ee-0a42-4ff2-9594-2f9c35589c3f\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"756d6cb4-2125-40db-96a4-98dfdd971d1d\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597031,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"4634b7ee-0a42-4ff2-9594-2f9c35589c3f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"756d6cb4-2125-40db-96a4-98dfdd971d1d\"}"
 </t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.584699153900146</v>
+        <v>6.296937227249146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10653</v>
+        <v>8720</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"d05e1a73-4862-4864-8968-b0a1020e4ddb","operationData":{"accountIdDebit":10653,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.22","amountDebitTotal":"1.48","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"d05e1a73-4862-4864-8968-b0a1020e4ddb\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"536a97c2-2356-4b8e-ac0a-42430c1b5ec5\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597032,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"d05e1a73-4862-4864-8968-b0a1020e4ddb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"536a97c2-2356-4b8e-ac0a-42430c1b5ec5\"}"
 </t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.317092418670654</v>
+        <v>5.774121284484863</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10654</v>
+        <v>8715</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"eb9e2c28-8edd-4389-bd05-828d148c1b4d","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"640","amountCreditTotal":"112","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"114.29","amountDebitTotal":"754.29","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"eb9e2c28-8edd-4389-bd05-828d148c1b4d\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"420e89c0-1013-40ab-9466-0e3f9e3f8b41\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597033,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"eb9e2c28-8edd-4389-bd05-828d148c1b4d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"420e89c0-1013-40ab-9466-0e3f9e3f8b41\"}"
 </t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.593948125839233</v>
+        <v>5.773116111755371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8714</v>
+        <v>8722</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c","operationData":{"accountIdDebit":8714,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"83858985-e68d-46da-9d02-31ce2c3aacb4\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597034,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"5af3acc1-a9ac-4acb-8f55-5d11fba0a92c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"83858985-e68d-46da-9d02-31ce2c3aacb4\"}"
 </t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.652743816375732</v>
+        <v>5.874422073364258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10707</v>
+        <v>8711</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"757c8b04-3360-4870-a8e7-aa6bd8e965fe","operationData":{"accountIdDebit":10707,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"757c8b04-3360-4870-a8e7-aa6bd8e965fe\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"e73b8b9c-36ac-4b13-9608-860a07210dff\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597035,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"757c8b04-3360-4870-a8e7-aa6bd8e965fe\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e73b8b9c-36ac-4b13-9608-860a07210dff\"}"
 </t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.111570596694946</v>
+        <v>6.056626081466675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8716</v>
+        <v>8731</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3d3c5e6d-5aa0-4148-900b-b04fd796d24f","operationData":{"accountIdDebit":8731,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"9f1f0c59-1f19-45d7-ab26-e4879a51f6af\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"3d3c5e6d-5aa0-4148-900b-b04fd796d24f\", \"accountIdDebit\": 8731, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604939,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"9f1f0c59-1f19-45d7-ab26-e4879a51f6af\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3d3c5e6d-5aa0-4148-900b-b04fd796d24f\"}"
 </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.068884134292603</v>
+        <v>5.843555927276611</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10696</v>
+        <v>8729</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"7388474d-f109-4046-b314-08e7b93c6383\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"36a5a894-a236-49cb-b599-93abe357bdb1\", \"accountIdDebit\": 8729, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1897,91 +1897,91 @@
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"7388474d-f109-4046-b314-08e7b93c6383\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"36a5a894-a236-49cb-b599-93abe357bdb1\"}"
 </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12.7491512298584</v>
+        <v>5.93060827255249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8710</v>
+        <v>8728</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"59e3da60-fb47-415f-8aae-76626e21fd0c","operationData":{"accountIdDebit":8710,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"20","amountDebitTotal":"132","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
+          <t>{'error': {'code': 'ACCOUNT_DEBIT_DORMANT', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"59e3da60-fb47-415f-8aae-76626e21fd0c\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"3b5f440e-3ecb-41f6-acfa-bb1a11fbce07\", \"accountIdDebit\": 8728, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597036,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"59e3da60-fb47-415f-8aae-76626e21fd0c\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3b5f440e-3ecb-41f6-acfa-bb1a11fbce07\"}"
 </t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.552814722061157</v>
+        <v>5.276154041290283</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10295</v>
+        <v>8730</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"3372a6ff-4ace-45ad-b86a-5035cd0d1038","operationData":{"accountIdDebit":8730,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null,"theirRefNo":"-","knp":null},"needsOtp":false}', 'error': {}}</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"537c6e2c-915e-4141-953f-9bd3ea1720fc\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"3372a6ff-4ace-45ad-b86a-5035cd0d1038\", \"accountIdDebit\": 8730, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604940,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"537c6e2c-915e-4141-953f-9bd3ea1720fc\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"3372a6ff-4ace-45ad-b86a-5035cd0d1038\"}"
 </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.856210947036743</v>
+        <v>5.827714920043945</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8724</v>
+        <v>8726</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"72c279a1-54f7-45ab-ac76-d84d0c261cdd\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"e91a0268-c573-4cf4-ab30-a2d0c9e8d939\", \"accountIdDebit\": 8726, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -1993,17 +1993,17 @@
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"72c279a1-54f7-45ab-ac76-d84d0c261cdd\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"e91a0268-c573-4cf4-ab30-a2d0c9e8d939\"}"
 </t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.085460186004639</v>
+        <v>5.60322380065918</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8718</v>
+        <v>8727</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1c18605f-eb3a-4a51-976e-b7dceaebf278\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"b99a28ac-0f49-41f7-af82-49aa3c8ef53d\", \"accountIdDebit\": 8727, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2025,59 +2025,59 @@
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1c18605f-eb3a-4a51-976e-b7dceaebf278\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b99a28ac-0f49-41f7-af82-49aa3c8ef53d\"}"
 </t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.122260332107544</v>
+        <v>5.602225542068481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8717</v>
+        <v>10996</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"operationId":"4cdf5ee6-1bfc-4229-8c23-3dcb4d12b9ef","operationData":{"accountIdDebit":10996,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6fae4663-6440-4cbe-9807-077fc70f986d\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"4cdf5ee6-1bfc-4229-8c23-3dcb4d12b9ef\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'success': True, 'data': '{"txnId":3604941,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6fae4663-6440-4cbe-9807-077fc70f986d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4cdf5ee6-1bfc-4229-8c23-3dcb4d12b9ef\"}"
 </t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.130733251571655</v>
+        <v>5.481772184371948</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8723</v>
+        <v>10995</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2adedb50-a61f-4edf-a029-473511766005\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"20d9ed9d-137f-4c0d-9dc9-0f0b4412c9be\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2089,27 +2089,27 @@
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2adedb50-a61f-4edf-a029-473511766005\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"20d9ed9d-137f-4c0d-9dc9-0f0b4412c9be\"}"
 </t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.30908465385437</v>
+        <v>5.596689939498901</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8720</v>
+        <v>223</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b5d3ddb8-04ba-4e36-bc04-5a4ba8e71aae\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"d28ce8d2-d82d-477f-b167-f754e49de8b9\", \"accountIdDebit\": 223, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2121,27 +2121,27 @@
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b5d3ddb8-04ba-4e36-bc04-5a4ba8e71aae\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"d28ce8d2-d82d-477f-b167-f754e49de8b9\"}"
 </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.723325490951538</v>
+        <v>5.81891918182373</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8715</v>
+        <v>3587</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"00bd5985-0edc-4b6f-b4c4-ac7dce698a80\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"512c39f9-9d68-41f1-9077-ad733283c899\", \"accountIdDebit\": 3587, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2153,27 +2153,27 @@
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"00bd5985-0edc-4b6f-b4c4-ac7dce698a80\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"512c39f9-9d68-41f1-9077-ad733283c899\"}"
 </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.096839666366577</v>
+        <v>5.683917284011841</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8722</v>
+        <v>3517</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'DEBIT_ACCOUNT_INACTIVE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"ab239afe-8139-4559-bcca-853d3af1224d\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"33a7bf0a-1ff2-45ee-b52a-403d585040eb\", \"accountIdDebit\": 3517, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2185,27 +2185,27 @@
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"ab239afe-8139-4559-bcca-853d3af1224d\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"33a7bf0a-1ff2-45ee-b52a-403d585040eb\"}"
 </t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.317227125167847</v>
+        <v>5.823778390884399</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8711</v>
+        <v>186</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"878dd1e1-de96-43bb-a2fa-c2f6d4ef3933\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"48e6d6d4-7e83-4f5b-968a-6f6103e8ff69\", \"accountIdDebit\": 186, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2217,123 +2217,123 @@
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"878dd1e1-de96-43bb-a2fa-c2f6d4ef3933\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"48e6d6d4-7e83-4f5b-968a-6f6103e8ff69\"}"
 </t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.000574827194214</v>
+        <v>5.162972927093506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11136</v>
+        <v>175</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f","operationData":{"accountIdDebit":11136,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f\", \"accountIdDebit\": 11136, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"22498e5a-a238-426c-9cce-9188ac430bdc\", \"accountIdDebit\": 175, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597037,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"6fa22ef6-5be5-4ea6-8189-92a8c216dd1f\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"22498e5a-a238-426c-9cce-9188ac430bdc\"}"
 </t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.533515214920044</v>
+        <v>5.523763656616211</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11137</v>
+        <v>250</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a48241e8-fd16-42e1-b6f8-9f478eee367e","operationData":{"accountIdDebit":11137,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.17","amountCreditTotal":"111.85","exchangeRate":"95.6","exchangeRateCcy":"KGS","commission":"0.16","amountDebitTotal":"1.33","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a48241e8-fd16-42e1-b6f8-9f478eee367e\", \"accountIdDebit\": 11137, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"6e2dd897-d361-4738-acb5-d1c2a977cbd9\", \"accountIdDebit\": 250, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597038,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a48241e8-fd16-42e1-b6f8-9f478eee367e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"6e2dd897-d361-4738-acb5-d1c2a977cbd9\"}"
 </t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.456939220428467</v>
+        <v>5.523766279220581</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11131</v>
+        <v>172</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae","operationData":{"accountIdDebit":11131,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae\", \"accountIdDebit\": 11131, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"0f848a12-6758-4f7a-97ef-b8a8d5efac30\", \"accountIdDebit\": 172, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597039,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0f848a12-6758-4f7a-97ef-b8a8d5efac30\"}"
 </t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.194530248641968</v>
+        <v>5.489298343658447</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3007</v>
+        <v>8641</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"05135c3f-91a5-4061-95fb-5300bf669402\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"0484d4ba-4c53-4f06-81b7-e23db0e33610\", \"accountIdDebit\": 8641, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2345,27 +2345,27 @@
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"05135c3f-91a5-4061-95fb-5300bf669402\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"0484d4ba-4c53-4f06-81b7-e23db0e33610\"}"
 </t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.518256664276123</v>
+        <v>5.272864580154419</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3201</v>
+        <v>3509</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"925ce62f-b0fb-4c0f-8b2e-3aaaed3b21fb\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"50718d93-9480-4315-8d2f-9050449b2118\", \"accountIdDebit\": 3509, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2377,27 +2377,27 @@
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"925ce62f-b0fb-4c0f-8b2e-3aaaed3b21fb\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"50718d93-9480-4315-8d2f-9050449b2118\"}"
 </t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.124268531799316</v>
+        <v>5.80584979057312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2847</v>
+        <v>2769</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"c7e672dd-86f6-4ba5-8b5a-ccce05263ab1\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"cd636e93-04c6-40e3-acf8-611e017ff8ba\", \"accountIdDebit\": 2769, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2409,59 +2409,59 @@
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"c7e672dd-86f6-4ba5-8b5a-ccce05263ab1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"cd636e93-04c6-40e3-acf8-611e017ff8ba\"}"
 </t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.551238298416138</v>
+        <v>5.577743291854858</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3200</v>
+        <v>185</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"eb627bc2-552d-416d-833c-12b1e74cc0e1","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"eb627bc2-552d-416d-833c-12b1e74cc0e1\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"f81b71af-4b40-44b3-b8fc-c7111a6a39c1\", \"accountIdDebit\": 185, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597040,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"eb627bc2-552d-416d-833c-12b1e74cc0e1\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"f81b71af-4b40-44b3-b8fc-c7111a6a39c1\"}"
 </t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.533055782318115</v>
+        <v>5.415033102035522</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3078</v>
+        <v>231</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"e43b5b13-ec1a-4301-ac7e-ef0d004a9ed2\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"c8c2bd74-5a45-4ada-8879-5b3e50dc58b4\", \"accountIdDebit\": 231, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2473,81 +2473,81 @@
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"e43b5b13-ec1a-4301-ac7e-ef0d004a9ed2\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"c8c2bd74-5a45-4ada-8879-5b3e50dc58b4\"}"
 </t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.537024736404419</v>
+        <v>5.539801597595215</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3133</v>
+        <v>237</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"26654294-a5ad-43e9-aa30-37a6853e9f06","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"26654294-a5ad-43e9-aa30-37a6853e9f06\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"b026a6d5-f161-421e-8bca-6de33ecabe63\", \"accountIdDebit\": 237, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597041,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"26654294-a5ad-43e9-aa30-37a6853e9f06\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"b026a6d5-f161-421e-8bca-6de33ecabe63\"}"
 </t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.014204263687134</v>
+        <v>5.666781425476074</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3006</v>
+        <v>11049</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"a310370f-7f80-4892-aaa4-4816baa6e871","operationData":{"accountIdDebit":3006,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"1.26","amountCreditTotal":"112.14","exchangeRate":"89","exchangeRateCcy":"KGS","commission":"0.17","amountDebitTotal":"1.43","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"a310370f-7f80-4892-aaa4-4816baa6e871\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"42fe2aef-3a01-4e40-950b-5169dd3fb55b\", \"accountIdDebit\": 11049, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597042,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"a310370f-7f80-4892-aaa4-4816baa6e871\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"42fe2aef-3a01-4e40-950b-5169dd3fb55b\"}"
 </t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.13123631477356</v>
+        <v>5.669670343399048</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10996</v>
+        <v>3586</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"b3743dca-7722-4d10-9907-5a77adfcf61e\", \"accountIdDebit\": 10996, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"4cac9bd2-9592-439d-8e12-20e0ed2a1f80\", \"accountIdDebit\": 3586, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2569,27 +2569,27 @@
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"b3743dca-7722-4d10-9907-5a77adfcf61e\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4cac9bd2-9592-439d-8e12-20e0ed2a1f80\"}"
 </t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.567477941513062</v>
+        <v>5.668669462203979</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10995</v>
+        <v>238504</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2c2d1c4c-d3e8-4670-b95c-ec5abe9c28dc\", \"accountIdDebit\": 10995, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"4bc543bb-1452-483b-a8a6-084c11b638bf\", \"accountIdDebit\": 238504, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2601,59 +2601,59 @@
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2c2d1c4c-d3e8-4670-b95c-ec5abe9c28dc\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"4bc543bb-1452-483b-a8a6-084c11b638bf\"}"
 </t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.081562757492065</v>
+        <v>5.669665098190308</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2885</v>
+        <v>247805</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"operationId":"1993569a-8fd5-41a2-a6d8-5e1976b59f49","operationData":{"accountIdDebit":2885,"accountCreditPropValue":"1280016000192191","accountCreditPropType":"ACCOUNT_NO","amountDebit":"112","amountCreditTotal":"112","exchangeRate":"","exchangeRateCcy":"","commission":"15","amountDebitTotal":"127","creditCustomerName":"I******i n****N i***********s","paymentPurpose":"Test QR","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"1993569a-8fd5-41a2-a6d8-5e1976b59f49\", \"accountIdDebit\": 2885, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"45fd2944-dc8a-49cf-bd0e-29b1182a63a2\", \"accountIdDebit\": 247805, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'success': True, 'data': '{"txnId":3597043,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"1993569a-8fd5-41a2-a6d8-5e1976b59f49\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"45fd2944-dc8a-49cf-bd0e-29b1182a63a2\"}"
 </t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.875466823577881</v>
+        <v>6.715893030166626</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3159</v>
+        <v>10954</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"793e1185-c967-481e-9ac2-8abffca6eb15\", \"accountIdDebit\": 3159, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2b577e7d-4724-426b-80d1-f3b8f84b833f\", \"accountIdDebit\": 10954, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2665,27 +2665,27 @@
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"793e1185-c967-481e-9ac2-8abffca6eb15\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2b577e7d-4724-426b-80d1-f3b8f84b833f\"}"
 </t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.4367835521698</v>
+        <v>5.932957649230957</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2886</v>
+        <v>2791</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"3dcac2d4-a6f5-4d06-9765-85c5bd408db5\", \"accountIdDebit\": 2886, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"2d72e2eb-0783-4841-9b82-654850ab9628\", \"accountIdDebit\": 2791, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2697,27 +2697,27 @@
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"3dcac2d4-a6f5-4d06-9765-85c5bd408db5\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"2d72e2eb-0783-4841-9b82-654850ab9628\"}"
 </t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9945070743560791</v>
+        <v>5.75770378112793</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3094</v>
+        <v>209</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+          <t>{'error': {'code': 'OPERATION_IMPOSSIBLE', 'data': 'null'}}</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
-data: "{\"operationId\": \"2df89569-e1c0-4ea9-b093-7507f5f426ea\", \"accountIdDebit\": 3094, \"accountCreditPropValue\": \"01012661\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Test QR\", \"amountDebit\": \"112\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Test QR\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"03\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"DYNAMIC\", \"qrMerchantProviderId\": \"corp.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"01012661\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"01012661242630942194\", \"qrControlSum\": \"d549\"}"
+data: "{\"operationId\": \"5b7642ff-4599-4c40-8138-a6dbf400d9a9\", \"accountIdDebit\": 209, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
 </t>
         </is>
       </c>
@@ -2729,12 +2729,1612 @@
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">code: "CONFIRM_TRANSFER"
-data: "{\"otp\": \"111111\", \"operationId\": \"2df89569-e1c0-4ea9-b093-7507f5f426ea\"}"
+data: "{\"otp\": \"111111\", \"operationId\": \"5b7642ff-4599-4c40-8138-a6dbf400d9a9\"}"
 </t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.211994647979736</v>
+        <v>5.824322938919067</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10902</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"eb32cffb-ed94-409e-b915-0872d6520fc4\", \"accountIdDebit\": 10902, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"eb32cffb-ed94-409e-b915-0872d6520fc4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>5.935838460922241</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10903</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"50bc1401-823f-4f67-bbfa-7ff79623eee4","operationData":{"accountIdDebit":10903,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"50bc1401-823f-4f67-bbfa-7ff79623eee4\", \"accountIdDebit\": 10903, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604942,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"50bc1401-823f-4f67-bbfa-7ff79623eee4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>5.857013702392578</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8714</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"30110b0d-ae24-4b18-bbcd-f19a92080146\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"30110b0d-ae24-4b18-bbcd-f19a92080146\"}"
+</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5.949555158615112</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10707</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"3ef9454f-56ca-419c-af91-8dcf7755fcf2\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"3ef9454f-56ca-419c-af91-8dcf7755fcf2\"}"
+</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5.892311573028564</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8716</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c8837aff-3168-450c-97b8-cb884f49e6b5\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c8837aff-3168-450c-97b8-cb884f49e6b5\"}"
+</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>6.897703886032104</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10696</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"36d83df3-c7a7-4fbf-b46c-5432921716c9\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"36d83df3-c7a7-4fbf-b46c-5432921716c9\"}"
+</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>5.383496761322021</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8710</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"b2b7c15e-1dd3-4801-801f-7c4cf16c1919\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"b2b7c15e-1dd3-4801-801f-7c4cf16c1919\"}"
+</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>6.522966146469116</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10295</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"04f8a853-c328-4e3e-882f-75a6a1c2010b\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"04f8a853-c328-4e3e-882f-75a6a1c2010b\"}"
+</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>5.903502702713013</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8724</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"5765ba74-72c1-4f3e-853b-33e6ed35ab93\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"5765ba74-72c1-4f3e-853b-33e6ed35ab93\"}"
+</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5.900505304336548</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>8723</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d5b85faf-6b02-4bae-8fb3-919cb1ae8fbe\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d5b85faf-6b02-4bae-8fb3-919cb1ae8fbe\"}"
+</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>5.907747507095337</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>8717</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"411330c1-e594-466a-be92-06812fe662a5\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"411330c1-e594-466a-be92-06812fe662a5\"}"
+</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>5.763899326324463</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8718</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"1993455b-4b4f-48ec-873a-abe1e93a8e20\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"1993455b-4b4f-48ec-873a-abe1e93a8e20\"}"
+</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5.695781946182251</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8720</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d9d0cf83-2633-40fb-a07a-2efdab794acd\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d9d0cf83-2633-40fb-a07a-2efdab794acd\"}"
+</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>5.791858196258545</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8715</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"fc608fcf-ce63-42e0-9c91-1326924e3cee\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"fc608fcf-ce63-42e0-9c91-1326924e3cee\"}"
+</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5.959030389785767</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8722</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c9012ca4-2404-40cb-be46-a49785041687\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c9012ca4-2404-40cb-be46-a49785041687\"}"
+</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5.679074764251709</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8711</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"0cab9c4e-cd7a-45b0-9b82-9fdc7c4b7d71\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"0cab9c4e-cd7a-45b0-9b82-9fdc7c4b7d71\"}"
+</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5.801957130432129</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10481</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7f957448-09ec-4bf2-9eb5-5ec77b7c4b61\", \"accountIdDebit\": 10481, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7f957448-09ec-4bf2-9eb5-5ec77b7c4b61\"}"
+</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>6.019081354141235</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10485</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"136f907e-c72c-4721-804d-9ffe610ee7c4\", \"accountIdDebit\": 10485, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"136f907e-c72c-4721-804d-9ffe610ee7c4\"}"
+</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>6.648998737335205</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10483</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7632df72-9e07-494f-bc96-acd4d9c6ac84\", \"accountIdDebit\": 10483, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7632df72-9e07-494f-bc96-acd4d9c6ac84\"}"
+</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5.73886775970459</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10484</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"89cc8f03-95e6-401c-b7c9-3ba35fd65e7c\", \"accountIdDebit\": 10484, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"89cc8f03-95e6-401c-b7c9-3ba35fd65e7c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>5.700316190719604</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10482</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"a310ebae-09bd-4d13-bea7-eae14302eadf\", \"accountIdDebit\": 10482, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"a310ebae-09bd-4d13-bea7-eae14302eadf\"}"
+</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>5.552681446075439</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10486</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'DAILY_TOTAL_LIMIT_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"422027ae-e6ac-48ae-9e9c-0e383aee1838\", \"accountIdDebit\": 10486, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"422027ae-e6ac-48ae-9e9c-0e383aee1838\"}"
+</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>5.460371017456055</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>8714</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"966a723d-2cb2-40ca-b310-927cad2e506c\", \"accountIdDebit\": 8714, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"966a723d-2cb2-40ca-b310-927cad2e506c\"}"
+</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5.549227714538574</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10707</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"4e8de7ae-d438-463b-8ae0-0ddba7a37077\", \"accountIdDebit\": 10707, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"4e8de7ae-d438-463b-8ae0-0ddba7a37077\"}"
+</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>6.057124376296997</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>8716</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"5aec7247-8f51-4f48-a2d3-f66a3941d5e7\", \"accountIdDebit\": 8716, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"5aec7247-8f51-4f48-a2d3-f66a3941d5e7\"}"
+</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5.86508584022522</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10696</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"d699be4d-34a2-4f28-8b34-d0ab7f1fab9a\", \"accountIdDebit\": 10696, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"d699be4d-34a2-4f28-8b34-d0ab7f1fab9a\"}"
+</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5.648969650268555</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>8710</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'NO_OPERATION_ACCESS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c76e448d-5ee6-4e06-8ebc-12f2fb2f0a92\", \"accountIdDebit\": 8710, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c76e448d-5ee6-4e06-8ebc-12f2fb2f0a92\"}"
+</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>5.478964328765869</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10295</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"bd80279c-ea07-405d-880c-3b084d021c47\", \"accountIdDebit\": 10295, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"bd80279c-ea07-405d-880c-3b084d021c47\"}"
+</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>6.127517461776733</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>8724</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"bc8e991f-e891-4ab9-88e4-c38083693562\", \"accountIdDebit\": 8724, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"bc8e991f-e891-4ab9-88e4-c38083693562\"}"
+</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5.252849340438843</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>8723</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"2fb3e097-e93e-4491-844c-8c9e0440a1db\", \"accountIdDebit\": 8723, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"2fb3e097-e93e-4491-844c-8c9e0440a1db\"}"
+</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>5.464886665344238</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>8717</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"50db9e04-6f3c-43b1-9f2d-90f347df2188\", \"accountIdDebit\": 8717, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"50db9e04-6f3c-43b1-9f2d-90f347df2188\"}"
+</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>5.132236957550049</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>8718</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"de0307a1-45c7-4aef-97f1-196fcce974b8\", \"accountIdDebit\": 8718, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"de0307a1-45c7-4aef-97f1-196fcce974b8\"}"
+</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>5.277326822280884</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>8720</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'ACCOUNT_NO_DEBIT', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"9725ddcb-079c-49f7-be1f-1ff55b38dd0e\", \"accountIdDebit\": 8720, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"9725ddcb-079c-49f7-be1f-1ff55b38dd0e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>5.445526838302612</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8715</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"55c6e210-73a2-4011-a930-ad746ad1658a\", \"accountIdDebit\": 8715, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"55c6e210-73a2-4011-a930-ad746ad1658a\"}"
+</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5.339036703109741</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>8722</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"317d129f-5faf-45c5-96a7-43fb96ae0021\", \"accountIdDebit\": 8722, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"317d129f-5faf-45c5-96a7-43fb96ae0021\"}"
+</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>5.363031387329102</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>8711</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INVALID_CCY_PAIR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"cd01f781-fcc1-4318-a10d-b448792e957e\", \"accountIdDebit\": 8711, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"cd01f781-fcc1-4318-a10d-b448792e957e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>5.361029863357544</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7e9c0a25-f5ba-442d-91f2-bee2d9ccb874\", \"accountIdDebit\": 3007, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7e9c0a25-f5ba-442d-91f2-bee2d9ccb874\"}"
+</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>5.22583270072937</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"df38a7d2-930e-4f17-a28c-a39f87315821\", \"accountIdDebit\": 3201, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"df38a7d2-930e-4f17-a28c-a39f87315821\"}"
+</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>6.014292240142822</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"21e72391-aad8-4650-bb5a-bd8045969efb\", \"accountIdDebit\": 2847, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"21e72391-aad8-4650-bb5a-bd8045969efb\"}"
+</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5.466180801391602</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"c8efbf43-38a9-4248-8e72-3b37c267dc1f","operationData":{"accountIdDebit":3200,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"c8efbf43-38a9-4248-8e72-3b37c267dc1f\", \"accountIdDebit\": 3200, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604943,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"c8efbf43-38a9-4248-8e72-3b37c267dc1f\"}"
+</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>5.291704416275024</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'RECIPIENT_NOT_FOUND', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"7a5efbc4-ffd0-4d08-8d8b-0d99ceddf4d0\", \"accountIdDebit\": 3078, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"7a5efbc4-ffd0-4d08-8d8b-0d99ceddf4d0\"}"
+</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>5.291394710540771</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3133</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"a5d6fd0b-df79-45e4-bdad-c7eedb1aaf24","operationData":{"accountIdDebit":3133,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"a5d6fd0b-df79-45e4-bdad-c7eedb1aaf24\", \"accountIdDebit\": 3133, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604944,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"a5d6fd0b-df79-45e4-bdad-c7eedb1aaf24\"}"
+</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5.658246517181396</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"2d8bc4a8-286e-4488-b5a0-2e17b4ecd99a\", \"accountIdDebit\": 3006, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"2d8bc4a8-286e-4488-b5a0-2e17b4ecd99a\"}"
+</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>5.632638216018677</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10656</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"b76dbc27-ad22-4bdf-b1fd-137e2c850f2f\", \"accountIdDebit\": 10656, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"b76dbc27-ad22-4bdf-b1fd-137e2c850f2f\"}"
+</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5.614639759063721</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10655</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"8ecc20c9-c23b-4dc2-abd7-d5f089d49f29","operationData":{"accountIdDebit":10655,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3270.33","exchangeRate":"1.09","exchangeRateCcy":"KGS","commission":"25.25","amountDebitTotal":"3025.55","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"8ecc20c9-c23b-4dc2-abd7-d5f089d49f29\", \"accountIdDebit\": 10655, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604945,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"8ecc20c9-c23b-4dc2-abd7-d5f089d49f29\"}"
+</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>5.6146399974823</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10654</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"cac6f90f-f578-47fe-bec1-402f1976ca54","operationData":{"accountIdDebit":10654,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"525.05","exchangeRate":"0.175","exchangeRateCcy":"KGS","commission":"979.6","amountDebitTotal":"3979.9","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"cac6f90f-f578-47fe-bec1-402f1976ca54\", \"accountIdDebit\": 10654, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604946,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_Y"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"cac6f90f-f578-47fe-bec1-402f1976ca54\"}"
+</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>5.370825290679932</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10658</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"822dc670-142c-436e-8317-159798c06566\", \"accountIdDebit\": 10658, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"822dc670-142c-436e-8317-159798c06566\"}"
+</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>5.256918430328369</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10390</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"operationId":"cbce4552-e662-42cb-a57d-21ba1f6ffe7e","operationData":{"accountIdDebit":10390,"accountCreditPropValue":"1285090000630562","accountCreditPropType":"ACCOUNT_NO","amountDebit":"3000.3","amountCreditTotal":"3000.3","exchangeRate":"","exchangeRateCcy":"","commission":"30","amountDebitTotal":"3030.3","creditCustomerName":"Q*********R X*****s y********r","paymentPurpose":"Payment for services","accountCreditCcy":"KGS","valueDate":null},"needsOtp":true}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"cbce4552-e662-42cb-a57d-21ba1f6ffe7e\", \"accountIdDebit\": 10390, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>{'success': True, 'data': '{"txnId":3604947,"txnCode":"CURRENT_CURRENT_OTHER_EXCH_N"}', 'error': {}}</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"cbce4552-e662-42cb-a57d-21ba1f6ffe7e\"}"
+</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>5.728487253189087</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10615</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"62ffdb35-b5c8-493e-a2d9-7e047cc05046\", \"accountIdDebit\": 10615, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"62ffdb35-b5c8-493e-a2d9-7e047cc05046\"}"
+</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5.189374446868896</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10653</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INSUFFICIENT_FUNDS', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "MAKE_BANK_CLIENT_TRANSFER"
+data: "{\"operationId\": \"de9b6ed4-878e-4d6f-bc5d-834a75a52990\", \"accountIdDebit\": 10653, \"accountCreditPropValue\": \"1285090000630562\", \"accountCreditPropType\": \"ACCOUNT_NO\", \"paymentPurpose\": \"Payment for services\", \"amountDebit\": \"3000.30\", \"valueDate\": null, \"knp\": null, \"theirRefNo\": null, \"valueTime\": null, \"txnId\": null, \"qrPayment\": true, \"qrAccountChangeable\": false, \"qrComment\": \"Payment for services\", \"qrServiceName\": \"KICB\", \"qrServiceId\": \"01\", \"clientType\": \"1\", \"qrVersion\": \"01\", \"qrType\": \"STATIC\", \"qrMerchantProviderId\": \"p2p.kicb.net\", \"qrMerchantId\": null, \"qrAccount\": \"1285090000630562\", \"qrMcc\": \"9999\", \"qrCcy\": \"417\", \"qrTransactionId\": \"Test 1\", \"qrControlSum\": \"c560\"}"
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>{'error': {'code': 'INTERNAL_SERVER_ERROR', 'data': 'null'}}</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code: "CONFIRM_TRANSFER"
+data: "{\"otp\": \"111111\", \"operationId\": \"de9b6ed4-878e-4d6f-bc5d-834a75a52990\"}"
+</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5.615157842636108</v>
       </c>
     </row>
   </sheetData>
